--- a/CSU_All_Pathway_TEALCA_ACTIVE.xlsx
+++ b/CSU_All_Pathway_TEALCA_ACTIVE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacks074\Documents\ABM-MOEA REPO\BETO-ABM-MOEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0ABB29-BE9B-4AB7-8373-0AEDD30EFB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C02AC99-4FF8-461F-99CB-69B3D3577B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37530" yWindow="4215" windowWidth="19755" windowHeight="20910" tabRatio="602" firstSheet="2" activeTab="3" xr2:uid="{828EDBD2-2078-5D4F-A1A0-69F25A94E2E3}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19755" windowHeight="20910" tabRatio="602" firstSheet="2" activeTab="6" xr2:uid="{828EDBD2-2078-5D4F-A1A0-69F25A94E2E3}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="779">
   <si>
     <t>Primary Author:</t>
   </si>
@@ -2807,6 +2807,18 @@
   </si>
   <si>
     <t>wastewater</t>
+  </si>
+  <si>
+    <t>Greenhouse Gas Impact</t>
+  </si>
+  <si>
+    <t>ghg_i</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas, import | liquefied petroleum gas | Cutoff, S - CH</t>
+  </si>
+  <si>
+    <t>natural gas production | ethane | Cutoff, U - RoW</t>
   </si>
 </sst>
 </file>
@@ -4094,6 +4106,17 @@
     <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4106,17 +4129,6 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Bad 2" xfId="8" xr:uid="{C8F8442B-28BC-494F-A25C-DA8BF8500E90}"/>
@@ -4947,10 +4959,10 @@
   <dimension ref="A1:AJ247"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O218" sqref="O218"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17368,7 +17380,7 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="O194" s="47">
-        <f t="shared" si="21"/>
+        <f>B194*$N194</f>
         <v>132.51489332713638</v>
       </c>
       <c r="P194" s="47">
@@ -23122,7 +23134,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23200,7 +23212,7 @@
       <c r="Q2" s="269"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="272" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="109">
@@ -23426,7 +23438,7 @@
       <c r="Q10" s="110"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="272" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="128">
@@ -23454,7 +23466,7 @@
       <c r="Q11" s="110"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="276" t="s">
+      <c r="A12" s="272" t="s">
         <v>201</v>
       </c>
       <c r="B12" s="128">
@@ -23676,7 +23688,7 @@
       <c r="Q19" s="110"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="276" t="s">
+      <c r="A20" s="272" t="s">
         <v>280</v>
       </c>
       <c r="B20" s="109">
@@ -23705,7 +23717,7 @@
       <c r="Q20" s="110"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="276" t="s">
+      <c r="A21" s="272" t="s">
         <v>262</v>
       </c>
       <c r="B21" s="109">
@@ -26646,12 +26658,12 @@
       <c r="H1" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="J1" s="270" t="s">
+      <c r="J1" s="275" t="s">
         <v>391</v>
       </c>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="235" t="s">
@@ -27666,12 +27678,12 @@
       <c r="H1" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="K1" s="270" t="s">
+      <c r="K1" s="275" t="s">
         <v>391</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
+      <c r="N1" s="275"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="227" t="s">
@@ -30563,22 +30575,22 @@
       <c r="I1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="271" t="s">
+      <c r="K1" s="276" t="s">
         <v>624</v>
       </c>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
       <c r="O1"/>
-      <c r="P1" s="271" t="s">
+      <c r="P1" s="276" t="s">
         <v>625</v>
       </c>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="271"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="276"/>
+      <c r="S1" s="276"/>
     </row>
     <row r="2" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="270" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="109">
@@ -30593,19 +30605,19 @@
       <c r="E2" s="110" t="s">
         <v>398</v>
       </c>
-      <c r="K2" s="272" t="s">
+      <c r="K2" s="277" t="s">
         <v>394</v>
       </c>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
       <c r="O2"/>
-      <c r="P2" s="272" t="s">
+      <c r="P2" s="277" t="s">
         <v>394</v>
       </c>
-      <c r="Q2" s="272"/>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="277"/>
     </row>
     <row r="3" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="255" t="s">
@@ -30770,7 +30782,7 @@
       <c r="S6" s="110"/>
     </row>
     <row r="7" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="270" t="s">
         <v>280</v>
       </c>
       <c r="B7" s="109">
@@ -30810,7 +30822,7 @@
       <c r="S7" s="110"/>
     </row>
     <row r="8" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="274" t="s">
+      <c r="A8" s="270" t="s">
         <v>262</v>
       </c>
       <c r="B8" s="109">
@@ -30841,9 +30853,9 @@
       <c r="P8" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="Q8" s="117" t="e">
+      <c r="Q8" s="117">
         <f>(G7*Q4)/LCI!J56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="R8" s="110" t="s">
         <v>403</v>
@@ -30967,18 +30979,18 @@
       <c r="S12" s="88"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K13" s="272" t="s">
+      <c r="K13" s="277" t="s">
         <v>434</v>
       </c>
-      <c r="L13" s="272"/>
-      <c r="M13" s="272"/>
-      <c r="N13" s="272"/>
-      <c r="P13" s="272" t="s">
+      <c r="L13" s="277"/>
+      <c r="M13" s="277"/>
+      <c r="N13" s="277"/>
+      <c r="P13" s="277" t="s">
         <v>434</v>
       </c>
-      <c r="Q13" s="272"/>
-      <c r="R13" s="272"/>
-      <c r="S13" s="272"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="277"/>
+      <c r="S13" s="277"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K14" s="104" t="s">
@@ -31116,12 +31128,12 @@
       <c r="G1" s="88" t="s">
         <v>390</v>
       </c>
-      <c r="I1" s="273" t="s">
+      <c r="I1" s="278" t="s">
         <v>636</v>
       </c>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
     </row>
     <row r="2" spans="1:12" s="88" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
@@ -31133,12 +31145,12 @@
       <c r="C2" s="106"/>
       <c r="D2" s="107"/>
       <c r="E2" s="107"/>
-      <c r="I2" s="272" t="s">
+      <c r="I2" s="277" t="s">
         <v>394</v>
       </c>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
     </row>
     <row r="3" spans="1:12" s="88" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="112" t="s">
@@ -31178,7 +31190,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="88" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="275" t="s">
+      <c r="A4" s="271" t="s">
         <v>280</v>
       </c>
       <c r="B4" s="109">
@@ -31215,7 +31227,7 @@
       <c r="L4" s="110"/>
     </row>
     <row r="5" spans="1:12" s="88" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="275" t="s">
+      <c r="A5" s="271" t="s">
         <v>262</v>
       </c>
       <c r="B5" s="109">
@@ -31345,7 +31357,7 @@
       <c r="L8" s="110"/>
     </row>
     <row r="9" spans="1:12" s="88" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="275" t="s">
+      <c r="A9" s="271" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="109">
@@ -31374,7 +31386,7 @@
       <c r="L9" s="110"/>
     </row>
     <row r="10" spans="1:12" s="88" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="271" t="s">
         <v>335</v>
       </c>
       <c r="B10" s="109">
@@ -31426,12 +31438,12 @@
       <c r="L11" s="88"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I12" s="272" t="s">
+      <c r="I12" s="277" t="s">
         <v>434</v>
       </c>
-      <c r="J12" s="272"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="272"/>
+      <c r="J12" s="277"/>
+      <c r="K12" s="277"/>
+      <c r="L12" s="277"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I13" s="104" t="s">
@@ -31783,20 +31795,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="273" t="s">
+      <c r="A19" s="278" t="s">
         <v>657</v>
       </c>
-      <c r="B19" s="273"/>
-      <c r="C19" s="273"/>
-      <c r="D19" s="273"/>
+      <c r="B19" s="278"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="278"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="272" t="s">
+      <c r="A20" s="277" t="s">
         <v>394</v>
       </c>
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="272"/>
+      <c r="B20" s="277"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="277"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -32141,8 +32153,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A55" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34390,7 +34402,7 @@
       </c>
       <c r="B46" s="70">
         <f>'NPV Solver'!B33</f>
-        <v>2.3919710656628013E-10</v>
+        <v>1.1623342288658023E-9</v>
       </c>
       <c r="C46" s="70">
         <f>'NPV Solver'!C33</f>
@@ -34456,7 +34468,7 @@
       </c>
       <c r="B47" s="143">
         <f>SUM(B96:B135)</f>
-        <v>355864.06273031607</v>
+        <v>355864.06273031619</v>
       </c>
       <c r="C47" s="143">
         <f t="shared" ref="C47:Q47" si="14">SUM(C96:C135)</f>
@@ -34540,7 +34552,7 @@
         <v>101</v>
       </c>
       <c r="B49" s="61">
-        <v>5.5521527357209086</v>
+        <v>5.5521527357209104</v>
       </c>
       <c r="C49" s="61">
         <v>4.737161789981764</v>
@@ -34592,7 +34604,7 @@
       </c>
       <c r="B50" s="61">
         <f>(B49*0.87)*3.785</f>
-        <v>18.282961351092165</v>
+        <v>18.282961351092172</v>
       </c>
       <c r="C50" s="61">
         <f t="shared" ref="C50:M50" si="15">(C49*0.87)*3.785</f>
@@ -36520,7 +36532,7 @@
       </c>
       <c r="B79" s="70">
         <f>B$49*(LCI!$E87/LCI!$E$91)</f>
-        <v>4.4658619830798614</v>
+        <v>4.4658619830798632</v>
       </c>
       <c r="C79" s="70">
         <f>C$49*(LCI!$E87/LCI!$E$91)</f>
@@ -36587,7 +36599,7 @@
       </c>
       <c r="B80" s="70">
         <f>B$49*(LCI!$E88/LCI!$E$91)</f>
-        <v>5.5521527357209086</v>
+        <v>5.5521527357209104</v>
       </c>
       <c r="C80" s="70">
         <f>C$49*(LCI!$E88/LCI!$E$91)</f>
@@ -36721,7 +36733,7 @@
       </c>
       <c r="B82" s="70">
         <f>B$49*(LCI!$E90/LCI!$E$91)</f>
-        <v>3.6209691754701581</v>
+        <v>3.620969175470159</v>
       </c>
       <c r="C82" s="70">
         <f>C$49*(LCI!$E90/LCI!$E$91)</f>
@@ -36788,7 +36800,7 @@
       </c>
       <c r="B83" s="70">
         <f>B$49*(LCI!$E91/LCI!$E$91)</f>
-        <v>5.5521527357209086</v>
+        <v>5.5521527357209104</v>
       </c>
       <c r="C83" s="70">
         <f>C$49*(LCI!$E91/LCI!$E$91)</f>
@@ -36922,7 +36934,7 @@
       </c>
       <c r="B85" s="70">
         <f>B$49*(LCI!$E93/LCI!$E$91)</f>
-        <v>5.5521527357209086</v>
+        <v>5.5521527357209104</v>
       </c>
       <c r="C85" s="70">
         <f>C$49*(LCI!$E93/LCI!$E$91)</f>
@@ -36989,7 +37001,7 @@
       </c>
       <c r="B86" s="70">
         <f>B$49*(LCI!$E94/LCI!$E$91)</f>
-        <v>5.5521527357209086</v>
+        <v>5.5521527357209104</v>
       </c>
       <c r="C86" s="70">
         <f>C$49*(LCI!$E94/LCI!$E$91)</f>
@@ -37056,7 +37068,7 @@
       </c>
       <c r="B87" s="70">
         <f>B$49*(LCI!$E95/LCI!$E$91)</f>
-        <v>5.5521527357209086</v>
+        <v>5.5521527357209104</v>
       </c>
       <c r="C87" s="70">
         <f>C$49*(LCI!$E95/LCI!$E$91)</f>
@@ -37123,7 +37135,7 @@
       </c>
       <c r="B88" s="70">
         <f>B$49*(LCI!$E96/LCI!$E$91)</f>
-        <v>5.5521527357209086</v>
+        <v>5.5521527357209104</v>
       </c>
       <c r="C88" s="70">
         <f>C$49*(LCI!$E96/LCI!$E$91)</f>
@@ -37190,7 +37202,7 @@
       </c>
       <c r="B89" s="70">
         <f>B$49*(LCI!$E97/LCI!$E$91)</f>
-        <v>5.914249653267925</v>
+        <v>5.9142496532679267</v>
       </c>
       <c r="C89" s="70">
         <f>C$49*(LCI!$E97/LCI!$E$91)</f>
@@ -37257,7 +37269,7 @@
       </c>
       <c r="B90" s="70">
         <f>B$49*(LCI!$E98/LCI!$E$91)</f>
-        <v>5.7935506807522525</v>
+        <v>5.7935506807522543</v>
       </c>
       <c r="C90" s="70">
         <f>C$49*(LCI!$E98/LCI!$E$91)</f>
@@ -39271,7 +39283,7 @@
       </c>
       <c r="B123" s="146">
         <f>I_O!B227*TEA!B79</f>
-        <v>272948.4328116593</v>
+        <v>272948.43281165941</v>
       </c>
       <c r="C123" s="146">
         <f>I_O!C227*TEA!C79</f>
@@ -40145,11 +40157,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:DR33"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BE15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BE33" sqref="BE33"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -41020,44 +41032,44 @@
         <v>1</v>
       </c>
       <c r="B4" s="21">
-        <f t="shared" ref="B4:B32" si="2">B3+DH4</f>
+        <f>B3+DH4</f>
         <v>-968891.22312710551</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" ref="C4:C33" si="3">C3+DI4</f>
+        <f t="shared" ref="C4:C33" si="2">C3+DI4</f>
         <v>-963387.70594973699</v>
       </c>
       <c r="D4" s="21" t="e">
-        <f t="shared" ref="D4:D33" si="4">D3+DJ4</f>
+        <f t="shared" ref="D4:D33" si="3">D3+DJ4</f>
         <v>#VALUE!</v>
       </c>
       <c r="E4" s="21" t="e">
-        <f t="shared" ref="E4:E33" si="5">E3+DK4</f>
+        <f t="shared" ref="E4:E33" si="4">E3+DK4</f>
         <v>#VALUE!</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21">
-        <f t="shared" ref="G4:G33" si="6">G3+DM4</f>
+        <f t="shared" ref="G4:G33" si="5">G3+DM4</f>
         <v>0</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H33" si="7">H3+DN4</f>
+        <f t="shared" ref="H4:H33" si="6">H3+DN4</f>
         <v>0</v>
       </c>
       <c r="I4" s="21">
-        <f t="shared" ref="I4:I33" si="8">I3+DO4</f>
+        <f t="shared" ref="I4:I33" si="7">I3+DO4</f>
         <v>-16860288.585856408</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J33" si="9">J3+DP4</f>
+        <f t="shared" ref="J4:J33" si="8">J3+DP4</f>
         <v>0</v>
       </c>
       <c r="K4" s="21">
-        <f t="shared" ref="K4:K33" si="10">K3+DQ4</f>
+        <f t="shared" ref="K4:K33" si="9">K3+DQ4</f>
         <v>0</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" ref="L4:L33" si="11">L3+DR4</f>
+        <f t="shared" ref="L4:L33" si="10">L3+DR4</f>
         <v>0</v>
       </c>
       <c r="M4" s="31">
@@ -41226,7 +41238,7 @@
       </c>
       <c r="BE4" s="21">
         <f>TEA!B$47-TEA!B$43-M4-AI4</f>
-        <v>57086.333285758083</v>
+        <v>57086.333285758199</v>
       </c>
       <c r="BF4" s="21">
         <f>TEA!C$47-TEA!C$43-N4-AJ4</f>
@@ -41266,90 +41278,90 @@
         <v>0</v>
       </c>
       <c r="BP4" s="21">
-        <f t="shared" ref="BP4:BP33" si="12">IF(CA3&lt;0,CA3,0)</f>
+        <f t="shared" ref="BP4:BP33" si="11">IF(CA3&lt;0,CA3,0)</f>
         <v>0</v>
       </c>
       <c r="BQ4" s="21">
-        <f t="shared" ref="BQ4:BQ33" si="13">IF(CB3&lt;0,CB3,0)</f>
+        <f t="shared" ref="BQ4:BQ33" si="12">IF(CB3&lt;0,CB3,0)</f>
         <v>0</v>
       </c>
       <c r="BR4" s="21">
-        <f t="shared" ref="BR4:BR33" si="14">IF(CC3&lt;0,CC3,0)</f>
+        <f t="shared" ref="BR4:BR33" si="13">IF(CC3&lt;0,CC3,0)</f>
         <v>0</v>
       </c>
       <c r="BS4" s="21">
-        <f t="shared" ref="BS4:BS33" si="15">IF(CD3&lt;0,CD3,0)</f>
+        <f t="shared" ref="BS4:BS33" si="14">IF(CD3&lt;0,CD3,0)</f>
         <v>0</v>
       </c>
       <c r="BT4" s="21"/>
       <c r="BU4" s="21">
-        <f t="shared" ref="BU4:BU33" si="16">IF(CF3&lt;0,CF3,0)</f>
+        <f t="shared" ref="BU4:BU33" si="15">IF(CF3&lt;0,CF3,0)</f>
         <v>0</v>
       </c>
       <c r="BV4" s="21">
-        <f t="shared" ref="BV4:BV33" si="17">IF(CG3&lt;0,CG3,0)</f>
+        <f t="shared" ref="BV4:BV33" si="16">IF(CG3&lt;0,CG3,0)</f>
         <v>0</v>
       </c>
       <c r="BW4" s="21">
-        <f t="shared" ref="BW4:BW33" si="18">IF(CH3&lt;0,CH3,0)</f>
+        <f t="shared" ref="BW4:BW33" si="17">IF(CH3&lt;0,CH3,0)</f>
         <v>0</v>
       </c>
       <c r="BX4" s="21">
-        <f t="shared" ref="BX4:BX33" si="19">IF(CI3&lt;0,CI3,0)</f>
+        <f t="shared" ref="BX4:BX33" si="18">IF(CI3&lt;0,CI3,0)</f>
         <v>0</v>
       </c>
       <c r="BY4" s="21">
-        <f t="shared" ref="BY4:BY33" si="20">IF(CJ3&lt;0,CJ3,0)</f>
+        <f t="shared" ref="BY4:BY33" si="19">IF(CJ3&lt;0,CJ3,0)</f>
         <v>0</v>
       </c>
       <c r="BZ4" s="21">
-        <f t="shared" ref="BZ4:BZ33" si="21">IF(CK3&lt;0,CK3,0)</f>
+        <f t="shared" ref="BZ4:BZ33" si="20">IF(CK3&lt;0,CK3,0)</f>
         <v>0</v>
       </c>
       <c r="CA4" s="21">
-        <f t="shared" ref="CA4:CA33" si="22">BE4+BP4</f>
-        <v>57086.333285758083</v>
+        <f t="shared" ref="CA4:CA33" si="21">BE4+BP4</f>
+        <v>57086.333285758199</v>
       </c>
       <c r="CB4" s="21">
-        <f t="shared" ref="CB4:CB33" si="23">BF4+BQ4</f>
+        <f t="shared" ref="CB4:CB33" si="22">BF4+BQ4</f>
         <v>53882.541301970487</v>
       </c>
       <c r="CC4" s="21" t="e">
-        <f t="shared" ref="CC4:CC33" si="24">BG4+BR4</f>
+        <f t="shared" ref="CC4:CC33" si="23">BG4+BR4</f>
         <v>#VALUE!</v>
       </c>
       <c r="CD4" s="21" t="e">
-        <f t="shared" ref="CD4:CD33" si="25">BH4+BS4</f>
+        <f t="shared" ref="CD4:CD33" si="24">BH4+BS4</f>
         <v>#VALUE!</v>
       </c>
       <c r="CE4" s="21"/>
       <c r="CF4" s="21">
-        <f t="shared" ref="CF4:CF33" si="26">BJ4+BU4</f>
+        <f t="shared" ref="CF4:CF33" si="25">BJ4+BU4</f>
         <v>0</v>
       </c>
       <c r="CG4" s="21">
-        <f t="shared" ref="CG4:CG33" si="27">BK4+BV4</f>
+        <f t="shared" ref="CG4:CG33" si="26">BK4+BV4</f>
         <v>0</v>
       </c>
       <c r="CH4" s="21">
-        <f t="shared" ref="CH4:CH33" si="28">BL4+BW4</f>
+        <f t="shared" ref="CH4:CH33" si="27">BL4+BW4</f>
         <v>-2853887.8932263581</v>
       </c>
       <c r="CI4" s="21">
-        <f t="shared" ref="CI4:CI33" si="29">BM4+BX4</f>
+        <f t="shared" ref="CI4:CI33" si="28">BM4+BX4</f>
         <v>0</v>
       </c>
       <c r="CJ4" s="21">
-        <f t="shared" ref="CJ4:CJ33" si="30">BN4+BY4</f>
+        <f t="shared" ref="CJ4:CJ33" si="29">BN4+BY4</f>
         <v>0</v>
       </c>
       <c r="CK4" s="21">
-        <f t="shared" ref="CK4:CK33" si="31">BO4+BZ4</f>
+        <f t="shared" ref="CK4:CK33" si="30">BO4+BZ4</f>
         <v>0</v>
       </c>
       <c r="CL4" s="21">
         <f>IF(CA4&gt;0,CA4*TEA!B$17-TEA!B$24,0)</f>
-        <v>11417.266657151617</v>
+        <v>11417.26665715164</v>
       </c>
       <c r="CM4" s="21">
         <f>IF(CB4&gt;0,CB4*TEA!C$17-TEA!C$24,0)</f>
@@ -41390,7 +41402,7 @@
       </c>
       <c r="CW4" s="21">
         <f>TEA!B$47-TEA!B$43-X4-CL4</f>
-        <v>55014.192829909574</v>
+        <v>55014.192829909669</v>
       </c>
       <c r="CX4" s="21">
         <f>TEA!C$47-TEA!C$43-Y4-CM4</f>
@@ -41431,7 +41443,7 @@
       </c>
       <c r="DH4" s="21">
         <f>CW4/(1+TEA!B$16)^$A4</f>
-        <v>50012.902572645064</v>
+        <v>50012.902572645151</v>
       </c>
       <c r="DI4" s="21">
         <f>CX4/(1+TEA!C$16)^$A4</f>
@@ -41477,44 +41489,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="21">
+        <f t="shared" ref="B5:B32" si="31">B4+DH5</f>
+        <v>-913989.19049317052</v>
+      </c>
+      <c r="C5" s="21">
         <f t="shared" si="2"/>
-        <v>-913989.19049317064</v>
-      </c>
-      <c r="C5" s="21">
+        <v>-912895.67416222859</v>
+      </c>
+      <c r="D5" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-912895.67416222859</v>
-      </c>
-      <c r="D5" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H5" s="21">
+      <c r="I5" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
+        <v>-16077035.827960417</v>
+      </c>
+      <c r="J5" s="21">
         <f t="shared" si="8"/>
-        <v>-16077035.827960417</v>
-      </c>
-      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K5" s="21">
+      <c r="L5" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M5" s="31">
@@ -41683,7 +41695,7 @@
       </c>
       <c r="BE5" s="21">
         <f>TEA!B$47-TEA!B$43-M5-AI5</f>
-        <v>-16392.211862927346</v>
+        <v>-16392.21186292723</v>
       </c>
       <c r="BF5" s="21">
         <f>TEA!C$47-TEA!C$43-N5-AJ5</f>
@@ -41723,85 +41735,85 @@
         <v>0</v>
       </c>
       <c r="BP5" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ5" s="21">
+      <c r="BR5" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR5" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS5" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS5" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT5" s="21"/>
       <c r="BU5" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV5" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV5" s="21">
+      <c r="BW5" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW5" s="21">
+        <v>-2853887.8932263581</v>
+      </c>
+      <c r="BX5" s="21">
         <f t="shared" si="18"/>
-        <v>-2853887.8932263581</v>
-      </c>
-      <c r="BX5" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY5" s="21">
+      <c r="BZ5" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ5" s="21">
+      <c r="CA5" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA5" s="21">
+        <v>-16392.21186292723</v>
+      </c>
+      <c r="CB5" s="21">
         <f t="shared" si="22"/>
-        <v>-16392.211862927346</v>
-      </c>
-      <c r="CB5" s="21">
+        <v>-17434.27426909341</v>
+      </c>
+      <c r="CC5" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>-17434.27426909341</v>
-      </c>
-      <c r="CC5" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD5" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD5" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE5" s="21"/>
       <c r="CF5" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG5" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG5" s="21">
+      <c r="CH5" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH5" s="21">
+        <v>-9581502.7564570345</v>
+      </c>
+      <c r="CI5" s="21">
         <f t="shared" si="28"/>
-        <v>-9581502.7564570345</v>
-      </c>
-      <c r="CI5" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ5" s="21">
+      <c r="CK5" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK5" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL5" s="21">
@@ -41847,7 +41859,7 @@
       </c>
       <c r="CW5" s="21">
         <f>TEA!B$47-TEA!B$43-X5-CL5</f>
-        <v>66431.459487061191</v>
+        <v>66431.459487061307</v>
       </c>
       <c r="CX5" s="21">
         <f>TEA!C$47-TEA!C$43-Y5-CM5</f>
@@ -41888,7 +41900,7 @@
       </c>
       <c r="DH5" s="21">
         <f>CW5/(1+TEA!B$16)^$A5</f>
-        <v>54902.032633934861</v>
+        <v>54902.032633934956</v>
       </c>
       <c r="DI5" s="21">
         <f>CX5/(1+TEA!C$16)^$A5</f>
@@ -41934,44 +41946,44 @@
         <v>3</v>
       </c>
       <c r="B6" s="21">
+        <f t="shared" si="31"/>
+        <v>-868969.25373462948</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="2"/>
-        <v>-868969.25373462972</v>
-      </c>
-      <c r="C6" s="21">
+        <v>-871327.25747674925</v>
+      </c>
+      <c r="D6" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-871327.25747674925</v>
-      </c>
-      <c r="D6" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H6" s="21">
+      <c r="I6" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
+        <v>-15364987.866236787</v>
+      </c>
+      <c r="J6" s="21">
         <f t="shared" si="8"/>
-        <v>-15364987.866236787</v>
-      </c>
-      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K6" s="21">
+      <c r="L6" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M6" s="31">
@@ -42140,7 +42152,7 @@
       </c>
       <c r="BE6" s="21">
         <f>TEA!B$47-TEA!B$43-M6-AI6</f>
-        <v>48941.830170143279</v>
+        <v>48941.830170143396</v>
       </c>
       <c r="BF6" s="21">
         <f>TEA!C$47-TEA!C$43-N6-AJ6</f>
@@ -42180,90 +42192,90 @@
         <v>0</v>
       </c>
       <c r="BP6" s="21">
+        <f t="shared" si="11"/>
+        <v>-16392.21186292723</v>
+      </c>
+      <c r="BQ6" s="21">
         <f t="shared" si="12"/>
-        <v>-16392.211862927346</v>
-      </c>
-      <c r="BQ6" s="21">
+        <v>-17434.27426909341</v>
+      </c>
+      <c r="BR6" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>-17434.27426909341</v>
-      </c>
-      <c r="BR6" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS6" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS6" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT6" s="21"/>
       <c r="BU6" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV6" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV6" s="21">
+      <c r="BW6" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW6" s="21">
+        <v>-9581502.7564570345</v>
+      </c>
+      <c r="BX6" s="21">
         <f t="shared" si="18"/>
-        <v>-9581502.7564570345</v>
-      </c>
-      <c r="BX6" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY6" s="21">
+      <c r="BZ6" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ6" s="21">
+      <c r="CA6" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA6" s="21">
+        <v>32549.618307216166</v>
+      </c>
+      <c r="CB6" s="21">
         <f t="shared" si="22"/>
-        <v>32549.618307215933</v>
-      </c>
-      <c r="CB6" s="21">
+        <v>28838.979272560187</v>
+      </c>
+      <c r="CC6" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>28838.979272560187</v>
-      </c>
-      <c r="CC6" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD6" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD6" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE6" s="21"/>
       <c r="CF6" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG6" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG6" s="21">
+      <c r="CH6" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH6" s="21">
+        <v>-13391388.85577083</v>
+      </c>
+      <c r="CI6" s="21">
         <f t="shared" si="28"/>
-        <v>-13391388.85577083</v>
-      </c>
-      <c r="CI6" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ6" s="21">
+      <c r="CK6" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK6" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL6" s="21">
         <f>IF(CA6&gt;0,CA6*TEA!B$17-TEA!B$24,0)</f>
-        <v>6509.9236614431866</v>
+        <v>6509.9236614432339</v>
       </c>
       <c r="CM6" s="21">
         <f>IF(CB6&gt;0,CB6*TEA!C$17-TEA!C$24,0)</f>
@@ -42304,7 +42316,7 @@
       </c>
       <c r="CW6" s="21">
         <f>TEA!B$47-TEA!B$43-X6-CL6</f>
-        <v>59921.535825618004</v>
+        <v>59921.535825618077</v>
       </c>
       <c r="CX6" s="21">
         <f>TEA!C$47-TEA!C$43-Y6-CM6</f>
@@ -42345,7 +42357,7 @@
       </c>
       <c r="DH6" s="21">
         <f>CW6/(1+TEA!B$16)^$A6</f>
-        <v>45019.936758540935</v>
+        <v>45019.936758540993</v>
       </c>
       <c r="DI6" s="21">
         <f>CX6/(1+TEA!C$16)^$A6</f>
@@ -42391,44 +42403,44 @@
         <v>4</v>
       </c>
       <c r="B7" s="21">
+        <f t="shared" si="31"/>
+        <v>-837111.50036945601</v>
+      </c>
+      <c r="C7" s="21">
         <f t="shared" si="2"/>
-        <v>-837111.50036945636</v>
-      </c>
-      <c r="C7" s="21">
+        <v>-842586.52630072169</v>
+      </c>
+      <c r="D7" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-842586.52630072169</v>
-      </c>
-      <c r="D7" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H7" s="21">
+      <c r="I7" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
+        <v>-14717671.537397124</v>
+      </c>
+      <c r="J7" s="21">
         <f t="shared" si="8"/>
-        <v>-14717671.537397124</v>
-      </c>
-      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="21">
+      <c r="L7" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M7" s="31">
@@ -42597,7 +42609,7 @@
       </c>
       <c r="BE7" s="21">
         <f>TEA!B$47-TEA!B$43-M7-AI7</f>
-        <v>98942.613925553931</v>
+        <v>98942.613925554047</v>
       </c>
       <c r="BF7" s="21">
         <f>TEA!C$47-TEA!C$43-N7-AJ7</f>
@@ -42637,90 +42649,90 @@
         <v>0</v>
       </c>
       <c r="BP7" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ7" s="21">
+      <c r="BR7" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR7" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS7" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS7" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT7" s="21"/>
       <c r="BU7" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV7" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV7" s="21">
+      <c r="BW7" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW7" s="21">
+        <v>-13391388.85577083</v>
+      </c>
+      <c r="BX7" s="21">
         <f t="shared" si="18"/>
-        <v>-13391388.85577083</v>
-      </c>
-      <c r="BX7" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY7" s="21">
+      <c r="BZ7" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ7" s="21">
+      <c r="CA7" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA7" s="21">
+        <v>98942.613925554047</v>
+      </c>
+      <c r="CB7" s="21">
         <f t="shared" si="22"/>
-        <v>98942.613925553931</v>
-      </c>
-      <c r="CB7" s="21">
+        <v>95080.269740316013</v>
+      </c>
+      <c r="CC7" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>95080.269740316013</v>
-      </c>
-      <c r="CC7" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD7" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD7" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE7" s="21"/>
       <c r="CF7" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG7" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG7" s="21">
+      <c r="CH7" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH7" s="21">
+        <v>-15059201.267180014</v>
+      </c>
+      <c r="CI7" s="21">
         <f t="shared" si="28"/>
-        <v>-15059201.267180014</v>
-      </c>
-      <c r="CI7" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ7" s="21">
+      <c r="CK7" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK7" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL7" s="21">
         <f>IF(CA7&gt;0,CA7*TEA!B$17-TEA!B$24,0)</f>
-        <v>19788.522785110788</v>
+        <v>19788.52278511081</v>
       </c>
       <c r="CM7" s="21">
         <f>IF(CB7&gt;0,CB7*TEA!C$17-TEA!C$24,0)</f>
@@ -42761,7 +42773,7 @@
       </c>
       <c r="CW7" s="21">
         <f>TEA!B$47-TEA!B$43-X7-CL7</f>
-        <v>46642.936701950399</v>
+        <v>46642.936701950501</v>
       </c>
       <c r="CX7" s="21">
         <f>TEA!C$47-TEA!C$43-Y7-CM7</f>
@@ -42802,7 +42814,7 @@
       </c>
       <c r="DH7" s="21">
         <f>CW7/(1+TEA!B$16)^$A7</f>
-        <v>31857.753365173408</v>
+        <v>31857.753365173478</v>
       </c>
       <c r="DI7" s="21">
         <f>CX7/(1+TEA!C$16)^$A7</f>
@@ -42848,44 +42860,44 @@
         <v>5</v>
       </c>
       <c r="B8" s="21">
+        <f t="shared" si="31"/>
+        <v>-813060.72463447158</v>
+      </c>
+      <c r="C8" s="21">
         <f t="shared" si="2"/>
-        <v>-813060.72463447205</v>
-      </c>
-      <c r="C8" s="21">
+        <v>-821258.44814583217</v>
+      </c>
+      <c r="D8" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-821258.44814583217</v>
-      </c>
-      <c r="D8" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H8" s="21">
+      <c r="I8" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="21">
+        <v>-14129202.147542885</v>
+      </c>
+      <c r="J8" s="21">
         <f t="shared" si="8"/>
-        <v>-14129202.147542885</v>
-      </c>
-      <c r="J8" s="21">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K8" s="21">
+      <c r="L8" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M8" s="31">
@@ -43054,7 +43066,7 @@
       </c>
       <c r="BE8" s="21">
         <f>TEA!B$47-TEA!B$43-M8-AI8</f>
-        <v>138487.22329055754</v>
+        <v>138487.22329055765</v>
       </c>
       <c r="BF8" s="21">
         <f>TEA!C$47-TEA!C$43-N8-AJ8</f>
@@ -43094,90 +43106,90 @@
         <v>0</v>
       </c>
       <c r="BP8" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ8" s="21">
+      <c r="BR8" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR8" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS8" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS8" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT8" s="21"/>
       <c r="BU8" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV8" s="21">
+      <c r="BW8" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW8" s="21">
+        <v>-15059201.267180014</v>
+      </c>
+      <c r="BX8" s="21">
         <f t="shared" si="18"/>
-        <v>-15059201.267180014</v>
-      </c>
-      <c r="BX8" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY8" s="21">
+      <c r="BZ8" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ8" s="21">
+      <c r="CA8" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA8" s="21">
+        <v>138487.22329055765</v>
+      </c>
+      <c r="CB8" s="21">
         <f t="shared" si="22"/>
-        <v>138487.22329055754</v>
-      </c>
-      <c r="CB8" s="21">
+        <v>133731.37656826992</v>
+      </c>
+      <c r="CC8" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>133731.37656826992</v>
-      </c>
-      <c r="CC8" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD8" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD8" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE8" s="21"/>
       <c r="CF8" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG8" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG8" s="21">
+      <c r="CH8" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH8" s="21">
+        <v>-15123078.813943669</v>
+      </c>
+      <c r="CI8" s="21">
         <f t="shared" si="28"/>
-        <v>-15123078.813943669</v>
-      </c>
-      <c r="CI8" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ8" s="21">
+      <c r="CK8" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK8" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL8" s="21">
         <f>IF(CA8&gt;0,CA8*TEA!B$17-TEA!B$24,0)</f>
-        <v>27697.444658111508</v>
+        <v>27697.444658111533</v>
       </c>
       <c r="CM8" s="21">
         <f>IF(CB8&gt;0,CB8*TEA!C$17-TEA!C$24,0)</f>
@@ -43218,7 +43230,7 @@
       </c>
       <c r="CW8" s="21">
         <f>TEA!B$47-TEA!B$43-X8-CL8</f>
-        <v>38734.014828949686</v>
+        <v>38734.014828949774</v>
       </c>
       <c r="CX8" s="21">
         <f>TEA!C$47-TEA!C$43-Y8-CM8</f>
@@ -43259,7 +43271,7 @@
       </c>
       <c r="DH8" s="21">
         <f>CW8/(1+TEA!B$16)^$A8</f>
-        <v>24050.775734984367</v>
+        <v>24050.775734984421</v>
       </c>
       <c r="DI8" s="21">
         <f>CX8/(1+TEA!C$16)^$A8</f>
@@ -43305,44 +43317,44 @@
         <v>6</v>
       </c>
       <c r="B9" s="21">
+        <f t="shared" si="31"/>
+        <v>-792492.72069368046</v>
+      </c>
+      <c r="C9" s="21">
         <f t="shared" si="2"/>
-        <v>-792492.72069368104</v>
-      </c>
-      <c r="C9" s="21">
+        <v>-803153.19102944445</v>
+      </c>
+      <c r="D9" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-803153.19102944445</v>
-      </c>
-      <c r="D9" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H9" s="21">
+      <c r="I9" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
+        <v>-13594229.974948121</v>
+      </c>
+      <c r="J9" s="21">
         <f t="shared" si="8"/>
-        <v>-13594229.974948121</v>
-      </c>
-      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K9" s="21">
+      <c r="L9" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M9" s="31">
@@ -43511,7 +43523,7 @@
       </c>
       <c r="BE9" s="21">
         <f>TEA!B$47-TEA!B$43-M9-AI9</f>
-        <v>149969.92928854725</v>
+        <v>149969.92928854737</v>
       </c>
       <c r="BF9" s="21">
         <f>TEA!C$47-TEA!C$43-N9-AJ9</f>
@@ -43551,90 +43563,90 @@
         <v>0</v>
       </c>
       <c r="BP9" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ9" s="21">
+      <c r="BR9" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR9" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS9" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS9" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT9" s="21"/>
       <c r="BU9" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV9" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV9" s="21">
+      <c r="BW9" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW9" s="21">
+        <v>-15123078.813943669</v>
+      </c>
+      <c r="BX9" s="21">
         <f t="shared" si="18"/>
-        <v>-15123078.813943669</v>
-      </c>
-      <c r="BX9" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY9" s="21">
+      <c r="BZ9" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ9" s="21">
+      <c r="CA9" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA9" s="21">
+        <v>149969.92928854737</v>
+      </c>
+      <c r="CB9" s="21">
         <f t="shared" si="22"/>
-        <v>149969.92928854725</v>
-      </c>
-      <c r="CB9" s="21">
+        <v>145103.95530260084</v>
+      </c>
+      <c r="CC9" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>145103.95530260084</v>
-      </c>
-      <c r="CC9" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD9" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD9" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE9" s="21"/>
       <c r="CF9" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG9" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG9" s="21">
+      <c r="CH9" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH9" s="21">
+        <v>-14987236.898399685</v>
+      </c>
+      <c r="CI9" s="21">
         <f t="shared" si="28"/>
-        <v>-14987236.898399685</v>
-      </c>
-      <c r="CI9" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ9" s="21">
+      <c r="CK9" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK9" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL9" s="21">
         <f>IF(CA9&gt;0,CA9*TEA!B$17-TEA!B$24,0)</f>
-        <v>29993.985857709453</v>
+        <v>29993.985857709475</v>
       </c>
       <c r="CM9" s="21">
         <f>IF(CB9&gt;0,CB9*TEA!C$17-TEA!C$24,0)</f>
@@ -43675,7 +43687,7 @@
       </c>
       <c r="CW9" s="21">
         <f>TEA!B$47-TEA!B$43-X9-CL9</f>
-        <v>36437.473629351734</v>
+        <v>36437.473629351836</v>
       </c>
       <c r="CX9" s="21">
         <f>TEA!C$47-TEA!C$43-Y9-CM9</f>
@@ -43716,7 +43728,7 @@
       </c>
       <c r="DH9" s="21">
         <f>CW9/(1+TEA!B$16)^$A9</f>
-        <v>20568.003940791041</v>
+        <v>20568.003940791099</v>
       </c>
       <c r="DI9" s="21">
         <f>CX9/(1+TEA!C$16)^$A9</f>
@@ -43762,44 +43774,44 @@
         <v>7</v>
       </c>
       <c r="B10" s="21">
+        <f t="shared" si="31"/>
+        <v>-775067.30315422022</v>
+      </c>
+      <c r="C10" s="21">
         <f t="shared" si="2"/>
-        <v>-775067.30315422092</v>
-      </c>
-      <c r="C10" s="21">
+        <v>-787954.4274963747</v>
+      </c>
+      <c r="D10" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-787954.4274963747</v>
-      </c>
-      <c r="D10" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H10" s="21">
+      <c r="I10" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
+        <v>-13107891.636225609</v>
+      </c>
+      <c r="J10" s="21">
         <f t="shared" si="8"/>
-        <v>-13107891.636225609</v>
-      </c>
-      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K10" s="21">
+      <c r="L10" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M10" s="31">
@@ -43968,7 +43980,7 @@
       </c>
       <c r="BE10" s="21">
         <f>TEA!B$47-TEA!B$43-M10-AI10</f>
-        <v>162371.25176637614</v>
+        <v>162371.25176637626</v>
       </c>
       <c r="BF10" s="21">
         <f>TEA!C$47-TEA!C$43-N10-AJ10</f>
@@ -44008,90 +44020,90 @@
         <v>0</v>
       </c>
       <c r="BP10" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ10" s="21">
+      <c r="BR10" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR10" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS10" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS10" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT10" s="21"/>
       <c r="BU10" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV10" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV10" s="21">
+      <c r="BW10" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW10" s="21">
+        <v>-14987236.898399685</v>
+      </c>
+      <c r="BX10" s="21">
         <f t="shared" si="18"/>
-        <v>-14987236.898399685</v>
-      </c>
-      <c r="BX10" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY10" s="21">
+      <c r="BZ10" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ10" s="21">
+      <c r="CA10" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA10" s="21">
+        <v>162371.25176637626</v>
+      </c>
+      <c r="CB10" s="21">
         <f t="shared" si="22"/>
-        <v>162371.25176637614</v>
-      </c>
-      <c r="CB10" s="21">
+        <v>157386.34033567825</v>
+      </c>
+      <c r="CC10" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>157386.34033567825</v>
-      </c>
-      <c r="CC10" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD10" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD10" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE10" s="21"/>
       <c r="CF10" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG10" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG10" s="21">
+      <c r="CH10" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH10" s="21">
+        <v>-14635697.963563452</v>
+      </c>
+      <c r="CI10" s="21">
         <f t="shared" si="28"/>
-        <v>-14635697.963563452</v>
-      </c>
-      <c r="CI10" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ10" s="21">
+      <c r="CK10" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK10" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL10" s="21">
         <f>IF(CA10&gt;0,CA10*TEA!B$17-TEA!B$24,0)</f>
-        <v>32474.250353275231</v>
+        <v>32474.250353275253</v>
       </c>
       <c r="CM10" s="21">
         <f>IF(CB10&gt;0,CB10*TEA!C$17-TEA!C$24,0)</f>
@@ -44132,7 +44144,7 @@
       </c>
       <c r="CW10" s="21">
         <f>TEA!B$47-TEA!B$43-X10-CL10</f>
-        <v>33957.20913378596</v>
+        <v>33957.209133786055</v>
       </c>
       <c r="CX10" s="21">
         <f>TEA!C$47-TEA!C$43-Y10-CM10</f>
@@ -44173,7 +44185,7 @@
       </c>
       <c r="DH10" s="21">
         <f>CW10/(1+TEA!B$16)^$A10</f>
-        <v>17425.417539460159</v>
+        <v>17425.41753946021</v>
       </c>
       <c r="DI10" s="21">
         <f>CX10/(1+TEA!C$16)^$A10</f>
@@ -44219,44 +44231,44 @@
         <v>8</v>
       </c>
       <c r="B11" s="21">
+        <f t="shared" si="31"/>
+        <v>-763772.67907483818</v>
+      </c>
+      <c r="C11" s="21">
         <f t="shared" si="2"/>
-        <v>-763772.67907483887</v>
-      </c>
-      <c r="C11" s="21">
+        <v>-778581.78697248851</v>
+      </c>
+      <c r="D11" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-778581.78697248851</v>
-      </c>
-      <c r="D11" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="21">
+      <c r="I11" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="21">
+        <v>-12665765.873750599</v>
+      </c>
+      <c r="J11" s="21">
         <f t="shared" si="8"/>
-        <v>-12665765.873750599</v>
-      </c>
-      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K11" s="21">
+      <c r="L11" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M11" s="31">
@@ -44425,7 +44437,7 @@
       </c>
       <c r="BE11" s="21">
         <f>TEA!B$47-TEA!B$43-M11-AI11</f>
-        <v>211102.14848670663</v>
+        <v>211102.14848670675</v>
       </c>
       <c r="BF11" s="21">
         <f>TEA!C$47-TEA!C$43-N11-AJ11</f>
@@ -44465,90 +44477,90 @@
         <v>0</v>
       </c>
       <c r="BP11" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ11" s="21">
+      <c r="BR11" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR11" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS11" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS11" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT11" s="21"/>
       <c r="BU11" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV11" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV11" s="21">
+      <c r="BW11" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW11" s="21">
+        <v>-14635697.963563452</v>
+      </c>
+      <c r="BX11" s="21">
         <f t="shared" si="18"/>
-        <v>-14635697.963563452</v>
-      </c>
-      <c r="BX11" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY11" s="21">
+      <c r="BZ11" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ11" s="21">
+      <c r="CA11" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA11" s="21">
+        <v>211102.14848670675</v>
+      </c>
+      <c r="CB11" s="21">
         <f t="shared" si="22"/>
-        <v>211102.14848670663</v>
-      </c>
-      <c r="CB11" s="21">
+        <v>205021.35557864999</v>
+      </c>
+      <c r="CC11" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>205021.35557864999</v>
-      </c>
-      <c r="CC11" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD11" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD11" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE11" s="21"/>
       <c r="CF11" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG11" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG11" s="21">
+      <c r="CH11" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH11" s="21">
+        <v>-12316861.380956931</v>
+      </c>
+      <c r="CI11" s="21">
         <f t="shared" si="28"/>
-        <v>-12316861.380956931</v>
-      </c>
-      <c r="CI11" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ11" s="21">
+      <c r="CK11" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK11" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL11" s="21">
         <f>IF(CA11&gt;0,CA11*TEA!B$17-TEA!B$24,0)</f>
-        <v>42220.429697341329</v>
+        <v>42220.429697341351</v>
       </c>
       <c r="CM11" s="21">
         <f>IF(CB11&gt;0,CB11*TEA!C$17-TEA!C$24,0)</f>
@@ -44589,7 +44601,7 @@
       </c>
       <c r="CW11" s="21">
         <f>TEA!B$47-TEA!B$43-X11-CL11</f>
-        <v>24211.029789719862</v>
+        <v>24211.029789719956</v>
       </c>
       <c r="CX11" s="21">
         <f>TEA!C$47-TEA!C$43-Y11-CM11</f>
@@ -44630,7 +44642,7 @@
       </c>
       <c r="DH11" s="21">
         <f>CW11/(1+TEA!B$16)^$A11</f>
-        <v>11294.62407938202</v>
+        <v>11294.624079382063</v>
       </c>
       <c r="DI11" s="21">
         <f>CX11/(1+TEA!C$16)^$A11</f>
@@ -44676,44 +44688,44 @@
         <v>9</v>
       </c>
       <c r="B12" s="21">
+        <f t="shared" si="31"/>
+        <v>-757797.17300638231</v>
+      </c>
+      <c r="C12" s="21">
         <f t="shared" si="2"/>
-        <v>-757797.173006383</v>
-      </c>
-      <c r="C12" s="21">
+        <v>-774257.84998599242</v>
+      </c>
+      <c r="D12" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-774257.84998599242</v>
-      </c>
-      <c r="D12" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H12" s="21">
+      <c r="I12" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
+        <v>-12263833.362409681</v>
+      </c>
+      <c r="J12" s="21">
         <f t="shared" si="8"/>
-        <v>-12263833.362409681</v>
-      </c>
-      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K12" s="21">
+      <c r="L12" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M12" s="32"/>
@@ -44842,7 +44854,7 @@
       </c>
       <c r="BE12" s="21">
         <f>TEA!B$47-TEA!B$43-M12-AI12</f>
-        <v>261707.64375194599</v>
+        <v>261707.6437519461</v>
       </c>
       <c r="BF12" s="21">
         <f>TEA!C$47-TEA!C$43-N12-AJ12</f>
@@ -44882,90 +44894,90 @@
         <v>0</v>
       </c>
       <c r="BP12" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ12" s="21">
+      <c r="BR12" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR12" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS12" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS12" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT12" s="21"/>
       <c r="BU12" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV12" s="21">
+      <c r="BW12" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW12" s="21">
+        <v>-12316861.380956931</v>
+      </c>
+      <c r="BX12" s="21">
         <f t="shared" si="18"/>
-        <v>-12316861.380956931</v>
-      </c>
-      <c r="BX12" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY12" s="21">
+      <c r="BZ12" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ12" s="21">
+      <c r="CA12" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA12" s="21">
+        <v>261707.6437519461</v>
+      </c>
+      <c r="CB12" s="21">
         <f t="shared" si="22"/>
-        <v>261707.64375194599</v>
-      </c>
-      <c r="CB12" s="21">
+        <v>254498.70614773527</v>
+      </c>
+      <c r="CC12" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>254498.70614773527</v>
-      </c>
-      <c r="CC12" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD12" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD12" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE12" s="21"/>
       <c r="CF12" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG12" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG12" s="21">
+      <c r="CH12" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH12" s="21">
+        <v>-7972673.9993193028</v>
+      </c>
+      <c r="CI12" s="21">
         <f t="shared" si="28"/>
-        <v>-7972673.9993193028</v>
-      </c>
-      <c r="CI12" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ12" s="21">
+      <c r="CK12" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK12" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL12" s="21">
         <f>IF(CA12&gt;0,CA12*TEA!B$17-TEA!B$24,0)</f>
-        <v>52341.528750389203</v>
+        <v>52341.528750389225</v>
       </c>
       <c r="CM12" s="21">
         <f>IF(CB12&gt;0,CB12*TEA!C$17-TEA!C$24,0)</f>
@@ -45006,7 +45018,7 @@
       </c>
       <c r="CW12" s="21">
         <f>TEA!B$47-TEA!B$43-X12-CL12</f>
-        <v>14089.930736671988</v>
+        <v>14089.930736672082</v>
       </c>
       <c r="CX12" s="21">
         <f>TEA!C$47-TEA!C$43-Y12-CM12</f>
@@ -45047,7 +45059,7 @@
       </c>
       <c r="DH12" s="21">
         <f>CW12/(1+TEA!B$16)^$A12</f>
-        <v>5975.5060684558584</v>
+        <v>5975.5060684558985</v>
       </c>
       <c r="DI12" s="21">
         <f>CX12/(1+TEA!C$16)^$A12</f>
@@ -45093,44 +45105,44 @@
         <v>10</v>
       </c>
       <c r="B13" s="21">
+        <f t="shared" si="31"/>
+        <v>-753569.49352119118</v>
+      </c>
+      <c r="C13" s="21">
         <f t="shared" si="2"/>
-        <v>-753569.49352119188</v>
-      </c>
-      <c r="C13" s="21">
+        <v>-771520.04398573644</v>
+      </c>
+      <c r="D13" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-771520.04398573644</v>
-      </c>
-      <c r="D13" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H13" s="21">
+      <c r="I13" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
+        <v>-11898440.170281574</v>
+      </c>
+      <c r="J13" s="21">
         <f t="shared" si="8"/>
-        <v>-11898440.170281574</v>
-      </c>
-      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K13" s="21">
+      <c r="L13" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M13" s="21"/>
@@ -45259,7 +45271,7 @@
       </c>
       <c r="BE13" s="21">
         <f>TEA!B$47-TEA!B$43-M13-AI13</f>
-        <v>277329.73849313677</v>
+        <v>277329.73849313689</v>
       </c>
       <c r="BF13" s="21">
         <f>TEA!C$47-TEA!C$43-N13-AJ13</f>
@@ -45299,90 +45311,90 @@
         <v>0</v>
       </c>
       <c r="BP13" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ13" s="21">
+      <c r="BR13" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR13" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS13" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS13" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT13" s="21"/>
       <c r="BU13" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV13" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV13" s="21">
+      <c r="BW13" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW13" s="21">
+        <v>-7972673.9993193028</v>
+      </c>
+      <c r="BX13" s="21">
         <f t="shared" si="18"/>
-        <v>-7972673.9993193028</v>
-      </c>
-      <c r="BX13" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY13" s="21">
+      <c r="BZ13" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ13" s="21">
+      <c r="CA13" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA13" s="21">
+        <v>277329.73849313689</v>
+      </c>
+      <c r="CB13" s="21">
         <f t="shared" si="22"/>
-        <v>277329.73849313677</v>
-      </c>
-      <c r="CB13" s="21">
+        <v>269970.97396252328</v>
+      </c>
+      <c r="CC13" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>269970.97396252328</v>
-      </c>
-      <c r="CC13" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD13" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD13" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE13" s="21"/>
       <c r="CF13" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG13" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG13" s="21">
+      <c r="CH13" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH13" s="21">
+        <v>-3356770.4941149959</v>
+      </c>
+      <c r="CI13" s="21">
         <f t="shared" si="28"/>
-        <v>-3356770.4941149959</v>
-      </c>
-      <c r="CI13" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ13" s="21">
+      <c r="CK13" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK13" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL13" s="21">
         <f>IF(CA13&gt;0,CA13*TEA!B$17-TEA!B$24,0)</f>
-        <v>55465.947698627358</v>
+        <v>55465.94769862738</v>
       </c>
       <c r="CM13" s="21">
         <f>IF(CB13&gt;0,CB13*TEA!C$17-TEA!C$24,0)</f>
@@ -45423,7 +45435,7 @@
       </c>
       <c r="CW13" s="21">
         <f>TEA!B$47-TEA!B$43-X13-CL13</f>
-        <v>10965.511788433832</v>
+        <v>10965.511788433927</v>
       </c>
       <c r="CX13" s="21">
         <f>TEA!C$47-TEA!C$43-Y13-CM13</f>
@@ -45464,7 +45476,7 @@
       </c>
       <c r="DH13" s="21">
         <f>CW13/(1+TEA!B$16)^$A13</f>
-        <v>4227.6794851910845</v>
+        <v>4227.6794851911209</v>
       </c>
       <c r="DI13" s="21">
         <f>CX13/(1+TEA!C$16)^$A13</f>
@@ -45510,44 +45522,44 @@
         <v>11</v>
       </c>
       <c r="B14" s="21">
+        <f t="shared" si="31"/>
+        <v>-671076.80047892348</v>
+      </c>
+      <c r="C14" s="21">
         <f t="shared" si="2"/>
-        <v>-671076.80047892418</v>
-      </c>
-      <c r="C14" s="21">
+        <v>-691136.08420209028</v>
+      </c>
+      <c r="D14" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-691136.08420209028</v>
-      </c>
-      <c r="D14" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H14" s="21">
+      <c r="I14" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
+        <v>-10087712.055765789</v>
+      </c>
+      <c r="J14" s="21">
         <f t="shared" si="8"/>
-        <v>-10087712.055765789</v>
-      </c>
-      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K14" s="21">
+      <c r="L14" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M14" s="21"/>
@@ -45636,7 +45648,7 @@
       </c>
       <c r="BE14" s="21">
         <f>TEA!B$47-TEA!B$43-M14-AI14</f>
-        <v>294201.60081362282</v>
+        <v>294201.60081362294</v>
       </c>
       <c r="BF14" s="21">
         <f>TEA!C$47-TEA!C$43-N14-AJ14</f>
@@ -45676,90 +45688,90 @@
         <v>0</v>
       </c>
       <c r="BP14" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ14" s="21">
+      <c r="BR14" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR14" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS14" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS14" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT14" s="21"/>
       <c r="BU14" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV14" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV14" s="21">
+      <c r="BW14" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BW14" s="21">
+        <v>-3356770.4941149959</v>
+      </c>
+      <c r="BX14" s="21">
         <f t="shared" si="18"/>
-        <v>-3356770.4941149959</v>
-      </c>
-      <c r="BX14" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY14" s="21">
+      <c r="BZ14" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ14" s="21">
+      <c r="CA14" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA14" s="21">
+        <v>294201.60081362294</v>
+      </c>
+      <c r="CB14" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362282</v>
-      </c>
-      <c r="CB14" s="21">
+        <v>286681.02320249431</v>
+      </c>
+      <c r="CC14" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249431</v>
-      </c>
-      <c r="CC14" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD14" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD14" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE14" s="21"/>
       <c r="CF14" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG14" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG14" s="21">
+      <c r="CH14" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH14" s="21">
+        <v>1552586.4245413225</v>
+      </c>
+      <c r="CI14" s="21">
         <f t="shared" si="28"/>
-        <v>1552586.4245413225</v>
-      </c>
-      <c r="CI14" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ14" s="21">
+      <c r="CK14" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK14" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL14" s="21">
         <f>IF(CA14&gt;0,CA14*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.320162724565</v>
+        <v>58840.320162724587</v>
       </c>
       <c r="CM14" s="21">
         <f>IF(CB14&gt;0,CB14*TEA!C$17-TEA!C$24,0)</f>
@@ -45800,7 +45812,7 @@
       </c>
       <c r="CW14" s="21">
         <f>TEA!B$47-TEA!B$43-X14-CL14</f>
-        <v>235361.28065089832</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX14" s="21">
         <f>TEA!C$47-TEA!C$43-Y14-CM14</f>
@@ -45841,7 +45853,7 @@
       </c>
       <c r="DH14" s="21">
         <f>CW14/(1+TEA!B$16)^$A14</f>
-        <v>82492.693042267696</v>
+        <v>82492.693042267725</v>
       </c>
       <c r="DI14" s="21">
         <f>CX14/(1+TEA!C$16)^$A14</f>
@@ -45887,44 +45899,44 @@
         <v>12</v>
       </c>
       <c r="B15" s="21">
+        <f t="shared" si="31"/>
+        <v>-596083.44316777098</v>
+      </c>
+      <c r="C15" s="21">
         <f t="shared" si="2"/>
-        <v>-596083.44316777168</v>
-      </c>
-      <c r="C15" s="21">
+        <v>-618059.75712604832</v>
+      </c>
+      <c r="D15" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-618059.75712604832</v>
-      </c>
-      <c r="D15" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H15" s="21">
+      <c r="I15" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
+        <v>-8655509.6935053375</v>
+      </c>
+      <c r="J15" s="21">
         <f t="shared" si="8"/>
-        <v>-8655509.6935053375</v>
-      </c>
-      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K15" s="21">
+      <c r="L15" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M15" s="21"/>
@@ -46013,7 +46025,7 @@
       </c>
       <c r="BE15" s="21">
         <f>TEA!B$47-TEA!B$43-M15-AI15</f>
-        <v>294201.60081362282</v>
+        <v>294201.60081362294</v>
       </c>
       <c r="BF15" s="21">
         <f>TEA!C$47-TEA!C$43-N15-AJ15</f>
@@ -46053,90 +46065,90 @@
         <v>0</v>
       </c>
       <c r="BP15" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ15" s="21">
+      <c r="BR15" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR15" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS15" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS15" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT15" s="21"/>
       <c r="BU15" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV15" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV15" s="21">
+      <c r="BW15" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW15" s="21">
+      <c r="BX15" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX15" s="21">
+      <c r="BY15" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY15" s="21">
+      <c r="BZ15" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ15" s="21">
+      <c r="CA15" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA15" s="21">
+        <v>294201.60081362294</v>
+      </c>
+      <c r="CB15" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362282</v>
-      </c>
-      <c r="CB15" s="21">
+        <v>286681.02320249431</v>
+      </c>
+      <c r="CC15" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249431</v>
-      </c>
-      <c r="CC15" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD15" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD15" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE15" s="21"/>
       <c r="CF15" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG15" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG15" s="21">
+      <c r="CH15" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH15" s="21">
+        <v>4909356.9186563184</v>
+      </c>
+      <c r="CI15" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563184</v>
-      </c>
-      <c r="CI15" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ15" s="21">
+      <c r="CK15" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK15" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL15" s="21">
         <f>IF(CA15&gt;0,CA15*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.320162724565</v>
+        <v>58840.320162724587</v>
       </c>
       <c r="CM15" s="21">
         <f>IF(CB15&gt;0,CB15*TEA!C$17-TEA!C$24,0)</f>
@@ -46177,7 +46189,7 @@
       </c>
       <c r="CW15" s="21">
         <f>TEA!B$47-TEA!B$43-X15-CL15</f>
-        <v>235361.28065089832</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX15" s="21">
         <f>TEA!C$47-TEA!C$43-Y15-CM15</f>
@@ -46218,7 +46230,7 @@
       </c>
       <c r="DH15" s="21">
         <f>CW15/(1+TEA!B$16)^$A15</f>
-        <v>74993.357311152446</v>
+        <v>74993.357311152475</v>
       </c>
       <c r="DI15" s="21">
         <f>CX15/(1+TEA!C$16)^$A15</f>
@@ -46264,44 +46276,44 @@
         <v>13</v>
       </c>
       <c r="B16" s="21">
+        <f t="shared" si="31"/>
+        <v>-527907.66379399598</v>
+      </c>
+      <c r="C16" s="21">
         <f t="shared" si="2"/>
-        <v>-527907.66379399667</v>
-      </c>
-      <c r="C16" s="21">
+        <v>-551626.73251146474</v>
+      </c>
+      <c r="D16" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-551626.73251146474</v>
-      </c>
-      <c r="D16" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H16" s="21">
+      <c r="I16" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="21">
+        <v>-7353507.5459958352</v>
+      </c>
+      <c r="J16" s="21">
         <f t="shared" si="8"/>
-        <v>-7353507.5459958352</v>
-      </c>
-      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K16" s="21">
+      <c r="L16" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M16" s="21"/>
@@ -46390,7 +46402,7 @@
       </c>
       <c r="BE16" s="21">
         <f>TEA!B$47-TEA!B$43-M16-AI16</f>
-        <v>294201.60081362282</v>
+        <v>294201.60081362294</v>
       </c>
       <c r="BF16" s="21">
         <f>TEA!C$47-TEA!C$43-N16-AJ16</f>
@@ -46430,90 +46442,90 @@
         <v>0</v>
       </c>
       <c r="BP16" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ16" s="21">
+      <c r="BR16" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR16" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS16" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS16" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT16" s="21"/>
       <c r="BU16" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV16" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV16" s="21">
+      <c r="BW16" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW16" s="21">
+      <c r="BX16" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX16" s="21">
+      <c r="BY16" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY16" s="21">
+      <c r="BZ16" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ16" s="21">
+      <c r="CA16" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA16" s="21">
+        <v>294201.60081362294</v>
+      </c>
+      <c r="CB16" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362282</v>
-      </c>
-      <c r="CB16" s="21">
+        <v>286681.02320249431</v>
+      </c>
+      <c r="CC16" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249431</v>
-      </c>
-      <c r="CC16" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD16" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD16" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE16" s="21"/>
       <c r="CF16" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG16" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG16" s="21">
+      <c r="CH16" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH16" s="21">
+        <v>4909356.9186563184</v>
+      </c>
+      <c r="CI16" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563184</v>
-      </c>
-      <c r="CI16" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ16" s="21">
+      <c r="CK16" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK16" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL16" s="21">
         <f>IF(CA16&gt;0,CA16*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.320162724565</v>
+        <v>58840.320162724587</v>
       </c>
       <c r="CM16" s="21">
         <f>IF(CB16&gt;0,CB16*TEA!C$17-TEA!C$24,0)</f>
@@ -46554,7 +46566,7 @@
       </c>
       <c r="CW16" s="21">
         <f>TEA!B$47-TEA!B$43-X16-CL16</f>
-        <v>235361.28065089832</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX16" s="21">
         <f>TEA!C$47-TEA!C$43-Y16-CM16</f>
@@ -46595,7 +46607,7 @@
       </c>
       <c r="DH16" s="21">
         <f>CW16/(1+TEA!B$16)^$A16</f>
-        <v>68175.77937377496</v>
+        <v>68175.779373774974</v>
       </c>
       <c r="DI16" s="21">
         <f>CX16/(1+TEA!C$16)^$A16</f>
@@ -46641,44 +46653,44 @@
         <v>14</v>
       </c>
       <c r="B17" s="21">
+        <f t="shared" si="31"/>
+        <v>-465929.68254510965</v>
+      </c>
+      <c r="C17" s="21">
         <f t="shared" si="2"/>
-        <v>-465929.68254511035</v>
-      </c>
-      <c r="C17" s="21">
+        <v>-491233.07377093419</v>
+      </c>
+      <c r="D17" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-491233.07377093419</v>
-      </c>
-      <c r="D17" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="21">
+      <c r="I17" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="21">
+        <v>-6169869.2300781067</v>
+      </c>
+      <c r="J17" s="21">
         <f t="shared" si="8"/>
-        <v>-6169869.2300781067</v>
-      </c>
-      <c r="J17" s="21">
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K17" s="21">
+      <c r="L17" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M17" s="21"/>
@@ -46687,7 +46699,7 @@
       <c r="AT17" s="21"/>
       <c r="BE17" s="21">
         <f>TEA!B$47-TEA!B$43-M17-AI17</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF17" s="21">
         <f>TEA!C$47-TEA!C$43-N17-AJ17</f>
@@ -46727,90 +46739,90 @@
         <v>0</v>
       </c>
       <c r="BP17" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ17" s="21">
+      <c r="BR17" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR17" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS17" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS17" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT17" s="21"/>
       <c r="BU17" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV17" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV17" s="21">
+      <c r="BW17" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW17" s="21">
+      <c r="BX17" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX17" s="21">
+      <c r="BY17" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY17" s="21">
+      <c r="BZ17" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ17" s="21">
+      <c r="CA17" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA17" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB17" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB17" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC17" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC17" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD17" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD17" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE17" s="21"/>
       <c r="CF17" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG17" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG17" s="21">
+      <c r="CH17" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH17" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI17" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI17" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ17" s="21">
+      <c r="CK17" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK17" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL17" s="21">
         <f>IF(CA17&gt;0,CA17*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM17" s="21">
         <f>IF(CB17&gt;0,CB17*TEA!C$17-TEA!C$24,0)</f>
@@ -46851,7 +46863,7 @@
       </c>
       <c r="CW17" s="21">
         <f>TEA!B$47-TEA!B$43-X17-CL17</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX17" s="21">
         <f>TEA!C$47-TEA!C$43-Y17-CM17</f>
@@ -46892,7 +46904,7 @@
       </c>
       <c r="DH17" s="21">
         <f>CW17/(1+TEA!B$16)^$A17</f>
-        <v>61977.981248886303</v>
+        <v>61977.981248886332</v>
       </c>
       <c r="DI17" s="21">
         <f>CX17/(1+TEA!C$16)^$A17</f>
@@ -46938,44 +46950,44 @@
         <v>15</v>
       </c>
       <c r="B18" s="21">
+        <f t="shared" si="31"/>
+        <v>-409586.06322794023</v>
+      </c>
+      <c r="C18" s="21">
         <f t="shared" si="2"/>
-        <v>-409586.06322794099</v>
-      </c>
-      <c r="C18" s="21">
+        <v>-436329.74764317914</v>
+      </c>
+      <c r="D18" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-436329.74764317914</v>
-      </c>
-      <c r="D18" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="21">
+      <c r="I18" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="21">
+        <v>-5093834.3974256264</v>
+      </c>
+      <c r="J18" s="21">
         <f t="shared" si="8"/>
-        <v>-5093834.3974256264</v>
-      </c>
-      <c r="J18" s="21">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K18" s="21">
+      <c r="L18" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M18" s="21"/>
@@ -46984,7 +46996,7 @@
       <c r="AT18" s="21"/>
       <c r="BE18" s="21">
         <f>TEA!B$47-TEA!B$43-M18-AI18</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF18" s="21">
         <f>TEA!C$47-TEA!C$43-N18-AJ18</f>
@@ -47024,90 +47036,90 @@
         <v>0</v>
       </c>
       <c r="BP18" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ18" s="21">
+      <c r="BR18" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR18" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS18" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS18" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT18" s="21"/>
       <c r="BU18" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV18" s="21">
+      <c r="BW18" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW18" s="21">
+      <c r="BX18" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX18" s="21">
+      <c r="BY18" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY18" s="21">
+      <c r="BZ18" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ18" s="21">
+      <c r="CA18" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA18" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB18" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB18" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC18" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC18" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD18" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD18" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE18" s="21"/>
       <c r="CF18" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG18" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG18" s="21">
+      <c r="CH18" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH18" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI18" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI18" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ18" s="21">
+      <c r="CK18" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK18" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL18" s="21">
         <f>IF(CA18&gt;0,CA18*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM18" s="21">
         <f>IF(CB18&gt;0,CB18*TEA!C$17-TEA!C$24,0)</f>
@@ -47148,7 +47160,7 @@
       </c>
       <c r="CW18" s="21">
         <f>TEA!B$47-TEA!B$43-X18-CL18</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX18" s="21">
         <f>TEA!C$47-TEA!C$43-Y18-CM18</f>
@@ -47189,7 +47201,7 @@
       </c>
       <c r="DH18" s="21">
         <f>CW18/(1+TEA!B$16)^$A18</f>
-        <v>56343.619317169367</v>
+        <v>56343.619317169396</v>
       </c>
       <c r="DI18" s="21">
         <f>CX18/(1+TEA!C$16)^$A18</f>
@@ -47235,44 +47247,44 @@
         <v>16</v>
       </c>
       <c r="B19" s="21">
+        <f t="shared" si="31"/>
+        <v>-358364.59112142259</v>
+      </c>
+      <c r="C19" s="21">
         <f t="shared" si="2"/>
-        <v>-358364.59112142341</v>
-      </c>
-      <c r="C19" s="21">
+        <v>-386417.63298158365</v>
+      </c>
+      <c r="D19" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-386417.63298158365</v>
-      </c>
-      <c r="D19" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="21">
+      <c r="I19" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="21">
+        <v>-4115620.9131960985</v>
+      </c>
+      <c r="J19" s="21">
         <f t="shared" si="8"/>
-        <v>-4115620.9131960985</v>
-      </c>
-      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K19" s="21">
+      <c r="L19" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M19" s="21"/>
@@ -47281,7 +47293,7 @@
       <c r="AT19" s="21"/>
       <c r="BE19" s="21">
         <f>TEA!B$47-TEA!B$43-M19-AI19</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF19" s="21">
         <f>TEA!C$47-TEA!C$43-N19-AJ19</f>
@@ -47321,90 +47333,90 @@
         <v>0</v>
       </c>
       <c r="BP19" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ19" s="21">
+      <c r="BR19" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR19" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS19" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS19" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT19" s="21"/>
       <c r="BU19" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV19" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV19" s="21">
+      <c r="BW19" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW19" s="21">
+      <c r="BX19" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX19" s="21">
+      <c r="BY19" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY19" s="21">
+      <c r="BZ19" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ19" s="21">
+      <c r="CA19" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA19" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB19" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB19" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC19" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC19" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD19" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD19" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE19" s="21"/>
       <c r="CF19" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG19" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG19" s="21">
+      <c r="CH19" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH19" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI19" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI19" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ19" s="21">
+      <c r="CK19" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK19" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL19" s="21">
         <f>IF(CA19&gt;0,CA19*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM19" s="21">
         <f>IF(CB19&gt;0,CB19*TEA!C$17-TEA!C$24,0)</f>
@@ -47445,7 +47457,7 @@
       </c>
       <c r="CW19" s="21">
         <f>TEA!B$47-TEA!B$43-X19-CL19</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX19" s="21">
         <f>TEA!C$47-TEA!C$43-Y19-CM19</f>
@@ -47486,7 +47498,7 @@
       </c>
       <c r="DH19" s="21">
         <f>CW19/(1+TEA!B$16)^$A19</f>
-        <v>51221.472106517605</v>
+        <v>51221.472106517627</v>
       </c>
       <c r="DI19" s="21">
         <f>CX19/(1+TEA!C$16)^$A19</f>
@@ -47532,44 +47544,44 @@
         <v>17</v>
       </c>
       <c r="B20" s="21">
+        <f t="shared" si="31"/>
+        <v>-311799.61647913384</v>
+      </c>
+      <c r="C20" s="21">
         <f t="shared" si="2"/>
-        <v>-311799.61647913465</v>
-      </c>
-      <c r="C20" s="21">
+        <v>-341042.9832892241</v>
+      </c>
+      <c r="D20" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-341042.9832892241</v>
-      </c>
-      <c r="D20" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="21">
+      <c r="I20" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="21">
+        <v>-3226335.9275328917</v>
+      </c>
+      <c r="J20" s="21">
         <f t="shared" si="8"/>
-        <v>-3226335.9275328917</v>
-      </c>
-      <c r="J20" s="21">
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K20" s="21">
+      <c r="L20" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M20" s="21"/>
@@ -47578,7 +47590,7 @@
       <c r="AT20" s="21"/>
       <c r="BE20" s="21">
         <f>TEA!B$47-TEA!B$43-M20-AI20</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF20" s="21">
         <f>TEA!C$47-TEA!C$43-N20-AJ20</f>
@@ -47618,90 +47630,90 @@
         <v>0</v>
       </c>
       <c r="BP20" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ20" s="21">
+      <c r="BR20" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR20" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS20" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS20" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT20" s="21"/>
       <c r="BU20" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV20" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV20" s="21">
+      <c r="BW20" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW20" s="21">
+      <c r="BX20" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX20" s="21">
+      <c r="BY20" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY20" s="21">
+      <c r="BZ20" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ20" s="21">
+      <c r="CA20" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA20" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB20" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB20" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC20" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC20" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD20" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD20" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE20" s="21"/>
       <c r="CF20" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG20" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG20" s="21">
+      <c r="CH20" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH20" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI20" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI20" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ20" s="21">
+      <c r="CK20" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK20" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL20" s="21">
         <f>IF(CA20&gt;0,CA20*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM20" s="21">
         <f>IF(CB20&gt;0,CB20*TEA!C$17-TEA!C$24,0)</f>
@@ -47742,7 +47754,7 @@
       </c>
       <c r="CW20" s="21">
         <f>TEA!B$47-TEA!B$43-X20-CL20</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX20" s="21">
         <f>TEA!C$47-TEA!C$43-Y20-CM20</f>
@@ -47783,7 +47795,7 @@
       </c>
       <c r="DH20" s="21">
         <f>CW20/(1+TEA!B$16)^$A20</f>
-        <v>46564.974642288733</v>
+        <v>46564.974642288755</v>
       </c>
       <c r="DI20" s="21">
         <f>CX20/(1+TEA!C$16)^$A20</f>
@@ -47829,44 +47841,44 @@
         <v>18</v>
       </c>
       <c r="B21" s="21">
+        <f t="shared" si="31"/>
+        <v>-269467.82134978042</v>
+      </c>
+      <c r="C21" s="21">
         <f t="shared" si="2"/>
-        <v>-269467.82134978124</v>
-      </c>
-      <c r="C21" s="21">
+        <v>-299793.30175071541</v>
+      </c>
+      <c r="D21" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-299793.30175071541</v>
-      </c>
-      <c r="D21" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="21">
+      <c r="I21" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="21">
+        <v>-2417895.0314754308</v>
+      </c>
+      <c r="J21" s="21">
         <f t="shared" si="8"/>
-        <v>-2417895.0314754308</v>
-      </c>
-      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K21" s="21">
+      <c r="L21" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M21" s="21"/>
@@ -47875,7 +47887,7 @@
       <c r="AT21" s="21"/>
       <c r="BE21" s="21">
         <f>TEA!B$47-TEA!B$43-M21-AI21</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF21" s="21">
         <f>TEA!C$47-TEA!C$43-N21-AJ21</f>
@@ -47915,90 +47927,90 @@
         <v>0</v>
       </c>
       <c r="BP21" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ21" s="21">
+      <c r="BR21" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR21" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS21" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS21" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT21" s="21"/>
       <c r="BU21" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV21" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV21" s="21">
+      <c r="BW21" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW21" s="21">
+      <c r="BX21" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX21" s="21">
+      <c r="BY21" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY21" s="21">
+      <c r="BZ21" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ21" s="21">
+      <c r="CA21" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA21" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB21" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB21" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC21" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC21" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD21" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD21" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE21" s="21"/>
       <c r="CF21" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG21" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG21" s="21">
+      <c r="CH21" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH21" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI21" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI21" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ21" s="21">
+      <c r="CK21" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK21" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL21" s="21">
         <f>IF(CA21&gt;0,CA21*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM21" s="21">
         <f>IF(CB21&gt;0,CB21*TEA!C$17-TEA!C$24,0)</f>
@@ -48039,7 +48051,7 @@
       </c>
       <c r="CW21" s="21">
         <f>TEA!B$47-TEA!B$43-X21-CL21</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX21" s="21">
         <f>TEA!C$47-TEA!C$43-Y21-CM21</f>
@@ -48080,7 +48092,7 @@
       </c>
       <c r="DH21" s="21">
         <f>CW21/(1+TEA!B$16)^$A21</f>
-        <v>42331.795129353384</v>
+        <v>42331.795129353406</v>
       </c>
       <c r="DI21" s="21">
         <f>CX21/(1+TEA!C$16)^$A21</f>
@@ -48126,44 +48138,44 @@
         <v>19</v>
       </c>
       <c r="B22" s="21">
+        <f t="shared" si="31"/>
+        <v>-230984.37123218644</v>
+      </c>
+      <c r="C22" s="21">
         <f t="shared" si="2"/>
-        <v>-230984.37123218726</v>
-      </c>
-      <c r="C22" s="21">
+        <v>-262293.59126116207</v>
+      </c>
+      <c r="D22" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-262293.59126116207</v>
-      </c>
-      <c r="D22" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="21">
+      <c r="I22" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
+        <v>-1682948.7623322848</v>
+      </c>
+      <c r="J22" s="21">
         <f t="shared" si="8"/>
-        <v>-1682948.7623322848</v>
-      </c>
-      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K22" s="21">
+      <c r="L22" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M22" s="21"/>
@@ -48172,7 +48184,7 @@
       <c r="AT22" s="21"/>
       <c r="BE22" s="21">
         <f>TEA!B$47-TEA!B$43-M22-AI22</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF22" s="21">
         <f>TEA!C$47-TEA!C$43-N22-AJ22</f>
@@ -48212,90 +48224,90 @@
         <v>0</v>
       </c>
       <c r="BP22" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ22" s="21">
+      <c r="BR22" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR22" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS22" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS22" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT22" s="21"/>
       <c r="BU22" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV22" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV22" s="21">
+      <c r="BW22" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW22" s="21">
+      <c r="BX22" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX22" s="21">
+      <c r="BY22" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY22" s="21">
+      <c r="BZ22" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ22" s="21">
+      <c r="CA22" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA22" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB22" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB22" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC22" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC22" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD22" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD22" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE22" s="21"/>
       <c r="CF22" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG22" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG22" s="21">
+      <c r="CH22" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH22" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI22" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI22" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ22" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ22" s="21">
+      <c r="CK22" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK22" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL22" s="21">
         <f>IF(CA22&gt;0,CA22*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM22" s="21">
         <f>IF(CB22&gt;0,CB22*TEA!C$17-TEA!C$24,0)</f>
@@ -48336,7 +48348,7 @@
       </c>
       <c r="CW22" s="21">
         <f>TEA!B$47-TEA!B$43-X22-CL22</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX22" s="21">
         <f>TEA!C$47-TEA!C$43-Y22-CM22</f>
@@ -48377,7 +48389,7 @@
       </c>
       <c r="DH22" s="21">
         <f>CW22/(1+TEA!B$16)^$A22</f>
-        <v>38483.45011759398</v>
+        <v>38483.450117593995</v>
       </c>
       <c r="DI22" s="21">
         <f>CX22/(1+TEA!C$16)^$A22</f>
@@ -48423,44 +48435,44 @@
         <v>20</v>
       </c>
       <c r="B23" s="21">
+        <f t="shared" si="31"/>
+        <v>-195999.41657982825</v>
+      </c>
+      <c r="C23" s="21">
         <f t="shared" si="2"/>
-        <v>-195999.41657982909</v>
-      </c>
-      <c r="C23" s="21">
+        <v>-228202.94536156813</v>
+      </c>
+      <c r="D23" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-228202.94536156813</v>
-      </c>
-      <c r="D23" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H23" s="21">
+      <c r="I23" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="21">
+        <v>-1014815.7903839701</v>
+      </c>
+      <c r="J23" s="21">
         <f t="shared" si="8"/>
-        <v>-1014815.7903839701</v>
-      </c>
-      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K23" s="21">
+      <c r="L23" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M23" s="21"/>
@@ -48469,7 +48481,7 @@
       <c r="AT23" s="21"/>
       <c r="BE23" s="21">
         <f>TEA!B$47-TEA!B$43-M23-AI23</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF23" s="21">
         <f>TEA!C$47-TEA!C$43-N23-AJ23</f>
@@ -48509,90 +48521,90 @@
         <v>0</v>
       </c>
       <c r="BP23" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ23" s="21">
+      <c r="BR23" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR23" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS23" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS23" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT23" s="21"/>
       <c r="BU23" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV23" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV23" s="21">
+      <c r="BW23" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW23" s="21">
+      <c r="BX23" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX23" s="21">
+      <c r="BY23" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY23" s="21">
+      <c r="BZ23" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ23" s="21">
+      <c r="CA23" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA23" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB23" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB23" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC23" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC23" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD23" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD23" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE23" s="21"/>
       <c r="CF23" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG23" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG23" s="21">
+      <c r="CH23" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH23" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI23" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI23" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ23" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ23" s="21">
+      <c r="CK23" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK23" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL23" s="21">
         <f>IF(CA23&gt;0,CA23*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM23" s="21">
         <f>IF(CB23&gt;0,CB23*TEA!C$17-TEA!C$24,0)</f>
@@ -48633,7 +48645,7 @@
       </c>
       <c r="CW23" s="21">
         <f>TEA!B$47-TEA!B$43-X23-CL23</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX23" s="21">
         <f>TEA!C$47-TEA!C$43-Y23-CM23</f>
@@ -48674,7 +48686,7 @@
       </c>
       <c r="DH23" s="21">
         <f>CW23/(1+TEA!B$16)^$A23</f>
-        <v>34984.954652358167</v>
+        <v>34984.954652358181</v>
       </c>
       <c r="DI23" s="21">
         <f>CX23/(1+TEA!C$16)^$A23</f>
@@ -48720,44 +48732,44 @@
         <v>21</v>
       </c>
       <c r="B24" s="21">
+        <f t="shared" si="31"/>
+        <v>-164194.91235041173</v>
+      </c>
+      <c r="C24" s="21">
         <f t="shared" si="2"/>
-        <v>-164194.91235041257</v>
-      </c>
-      <c r="C24" s="21">
+        <v>-197211.44908921001</v>
+      </c>
+      <c r="D24" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-197211.44908921001</v>
-      </c>
-      <c r="D24" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="21">
+      <c r="I24" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="21">
+        <v>-407422.17952186591</v>
+      </c>
+      <c r="J24" s="21">
         <f t="shared" si="8"/>
-        <v>-407422.17952186591</v>
-      </c>
-      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K24" s="21">
+      <c r="L24" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M24" s="21"/>
@@ -48766,7 +48778,7 @@
       <c r="AT24" s="21"/>
       <c r="BE24" s="21">
         <f>TEA!B$47-TEA!B$43-M24-AI24</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF24" s="21">
         <f>TEA!C$47-TEA!C$43-N24-AJ24</f>
@@ -48806,90 +48818,90 @@
         <v>0</v>
       </c>
       <c r="BP24" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ24" s="21">
+      <c r="BR24" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR24" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS24" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS24" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT24" s="21"/>
       <c r="BU24" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV24" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV24" s="21">
+      <c r="BW24" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW24" s="21">
+      <c r="BX24" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX24" s="21">
+      <c r="BY24" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY24" s="21">
+      <c r="BZ24" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ24" s="21">
+      <c r="CA24" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA24" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB24" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB24" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC24" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC24" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD24" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD24" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE24" s="21"/>
       <c r="CF24" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG24" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG24" s="21">
+      <c r="CH24" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH24" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI24" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI24" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ24" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ24" s="21">
+      <c r="CK24" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK24" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL24" s="21">
         <f>IF(CA24&gt;0,CA24*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM24" s="21">
         <f>IF(CB24&gt;0,CB24*TEA!C$17-TEA!C$24,0)</f>
@@ -48930,7 +48942,7 @@
       </c>
       <c r="CW24" s="21">
         <f>TEA!B$47-TEA!B$43-X24-CL24</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX24" s="21">
         <f>TEA!C$47-TEA!C$43-Y24-CM24</f>
@@ -48971,7 +48983,7 @@
       </c>
       <c r="DH24" s="21">
         <f>CW24/(1+TEA!B$16)^$A24</f>
-        <v>31804.50422941651</v>
+        <v>31804.504229416525</v>
       </c>
       <c r="DI24" s="21">
         <f>CX24/(1+TEA!C$16)^$A24</f>
@@ -49017,44 +49029,44 @@
         <v>22</v>
       </c>
       <c r="B25" s="21">
+        <f t="shared" si="31"/>
+        <v>-135281.72668730581</v>
+      </c>
+      <c r="C25" s="21">
         <f t="shared" si="2"/>
-        <v>-135281.72668730665</v>
-      </c>
-      <c r="C25" s="21">
+        <v>-169037.36156888446</v>
+      </c>
+      <c r="D25" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-169037.36156888446</v>
-      </c>
-      <c r="D25" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E25" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="21">
+      <c r="I25" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="21">
+        <v>144753.83035277424</v>
+      </c>
+      <c r="J25" s="21">
         <f t="shared" si="8"/>
-        <v>144753.83035277424</v>
-      </c>
-      <c r="J25" s="21">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K25" s="21">
+      <c r="L25" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M25" s="21"/>
@@ -49063,7 +49075,7 @@
       <c r="AT25" s="21"/>
       <c r="BE25" s="21">
         <f>TEA!B$47-TEA!B$43-M25-AI25</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF25" s="21">
         <f>TEA!C$47-TEA!C$43-N25-AJ25</f>
@@ -49103,90 +49115,90 @@
         <v>0</v>
       </c>
       <c r="BP25" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ25" s="21">
+      <c r="BR25" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR25" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS25" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS25" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT25" s="21"/>
       <c r="BU25" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV25" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV25" s="21">
+      <c r="BW25" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW25" s="21">
+      <c r="BX25" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX25" s="21">
+      <c r="BY25" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY25" s="21">
+      <c r="BZ25" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ25" s="21">
+      <c r="CA25" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA25" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB25" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB25" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC25" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC25" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD25" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD25" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE25" s="21"/>
       <c r="CF25" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG25" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG25" s="21">
+      <c r="CH25" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH25" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI25" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI25" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ25" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ25" s="21">
+      <c r="CK25" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK25" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL25" s="21">
         <f>IF(CA25&gt;0,CA25*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM25" s="21">
         <f>IF(CB25&gt;0,CB25*TEA!C$17-TEA!C$24,0)</f>
@@ -49227,7 +49239,7 @@
       </c>
       <c r="CW25" s="21">
         <f>TEA!B$47-TEA!B$43-X25-CL25</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX25" s="21">
         <f>TEA!C$47-TEA!C$43-Y25-CM25</f>
@@ -49268,7 +49280,7 @@
       </c>
       <c r="DH25" s="21">
         <f>CW25/(1+TEA!B$16)^$A25</f>
-        <v>28913.185663105916</v>
+        <v>28913.185663105931</v>
       </c>
       <c r="DI25" s="21">
         <f>CX25/(1+TEA!C$16)^$A25</f>
@@ -49314,44 +49326,44 @@
         <v>23</v>
       </c>
       <c r="B26" s="21">
+        <f t="shared" si="31"/>
+        <v>-108997.01244811861</v>
+      </c>
+      <c r="C26" s="21">
         <f t="shared" si="2"/>
-        <v>-108997.01244811947</v>
-      </c>
-      <c r="C26" s="21">
+        <v>-143424.55473222485</v>
+      </c>
+      <c r="D26" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-143424.55473222485</v>
-      </c>
-      <c r="D26" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H26" s="21">
+      <c r="I26" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="21">
+        <v>646732.02114790154</v>
+      </c>
+      <c r="J26" s="21">
         <f t="shared" si="8"/>
-        <v>646732.02114790154</v>
-      </c>
-      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K26" s="21">
+      <c r="L26" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M26" s="21"/>
@@ -49360,7 +49372,7 @@
       <c r="AT26" s="21"/>
       <c r="BE26" s="21">
         <f>TEA!B$47-TEA!B$43-M26-AI26</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF26" s="21">
         <f>TEA!C$47-TEA!C$43-N26-AJ26</f>
@@ -49400,90 +49412,90 @@
         <v>0</v>
       </c>
       <c r="BP26" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ26" s="21">
+      <c r="BR26" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR26" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS26" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS26" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT26" s="21"/>
       <c r="BU26" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV26" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV26" s="21">
+      <c r="BW26" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW26" s="21">
+      <c r="BX26" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX26" s="21">
+      <c r="BY26" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY26" s="21">
+      <c r="BZ26" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ26" s="21">
+      <c r="CA26" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA26" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB26" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB26" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC26" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC26" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD26" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD26" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE26" s="21"/>
       <c r="CF26" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG26" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG26" s="21">
+      <c r="CH26" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH26" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI26" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI26" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ26" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ26" s="21">
+      <c r="CK26" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK26" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL26" s="21">
         <f>IF(CA26&gt;0,CA26*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM26" s="21">
         <f>IF(CB26&gt;0,CB26*TEA!C$17-TEA!C$24,0)</f>
@@ -49524,7 +49536,7 @@
       </c>
       <c r="CW26" s="21">
         <f>TEA!B$47-TEA!B$43-X26-CL26</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX26" s="21">
         <f>TEA!C$47-TEA!C$43-Y26-CM26</f>
@@ -49565,7 +49577,7 @@
       </c>
       <c r="DH26" s="21">
         <f>CW26/(1+TEA!B$16)^$A26</f>
-        <v>26284.714239187193</v>
+        <v>26284.714239187204</v>
       </c>
       <c r="DI26" s="21">
         <f>CX26/(1+TEA!C$16)^$A26</f>
@@ -49611,44 +49623,44 @@
         <v>24</v>
       </c>
       <c r="B27" s="21">
+        <f t="shared" si="31"/>
+        <v>-85101.817685221147</v>
+      </c>
+      <c r="C27" s="21">
         <f t="shared" si="2"/>
-        <v>-85101.81768522202</v>
-      </c>
-      <c r="C27" s="21">
+        <v>-120140.18488071612</v>
+      </c>
+      <c r="D27" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-120140.18488071612</v>
-      </c>
-      <c r="D27" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H27" s="21">
+      <c r="I27" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="21">
+        <v>1103075.8309616537</v>
+      </c>
+      <c r="J27" s="21">
         <f t="shared" si="8"/>
-        <v>1103075.8309616537</v>
-      </c>
-      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K27" s="21">
+      <c r="L27" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M27" s="21"/>
@@ -49657,7 +49669,7 @@
       <c r="AT27" s="21"/>
       <c r="BE27" s="21">
         <f>TEA!B$47-TEA!B$43-M27-AI27</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF27" s="21">
         <f>TEA!C$47-TEA!C$43-N27-AJ27</f>
@@ -49697,90 +49709,90 @@
         <v>0</v>
       </c>
       <c r="BP27" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ27" s="21">
+      <c r="BR27" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR27" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS27" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS27" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT27" s="21"/>
       <c r="BU27" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV27" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV27" s="21">
+      <c r="BW27" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW27" s="21">
+      <c r="BX27" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX27" s="21">
+      <c r="BY27" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY27" s="21">
+      <c r="BZ27" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ27" s="21">
+      <c r="CA27" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA27" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB27" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB27" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC27" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC27" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD27" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD27" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE27" s="21"/>
       <c r="CF27" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG27" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG27" s="21">
+      <c r="CH27" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH27" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI27" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI27" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ27" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ27" s="21">
+      <c r="CK27" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK27" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL27" s="21">
         <f>IF(CA27&gt;0,CA27*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM27" s="21">
         <f>IF(CB27&gt;0,CB27*TEA!C$17-TEA!C$24,0)</f>
@@ -49821,7 +49833,7 @@
       </c>
       <c r="CW27" s="21">
         <f>TEA!B$47-TEA!B$43-X27-CL27</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX27" s="21">
         <f>TEA!C$47-TEA!C$43-Y27-CM27</f>
@@ -49862,7 +49874,7 @@
       </c>
       <c r="DH27" s="21">
         <f>CW27/(1+TEA!B$16)^$A27</f>
-        <v>23895.194762897452</v>
+        <v>23895.194762897463</v>
       </c>
       <c r="DI27" s="21">
         <f>CX27/(1+TEA!C$16)^$A27</f>
@@ -49908,44 +49920,44 @@
         <v>25</v>
       </c>
       <c r="B28" s="21">
+        <f t="shared" si="31"/>
+        <v>-63378.913355314362</v>
+      </c>
+      <c r="C28" s="21">
         <f t="shared" si="2"/>
-        <v>-63378.91335531525</v>
-      </c>
-      <c r="C28" s="21">
+        <v>-98972.575924799094</v>
+      </c>
+      <c r="D28" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-98972.575924799094</v>
-      </c>
-      <c r="D28" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H28" s="21">
+      <c r="I28" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="21">
+        <v>1517933.8398832465</v>
+      </c>
+      <c r="J28" s="21">
         <f t="shared" si="8"/>
-        <v>1517933.8398832465</v>
-      </c>
-      <c r="J28" s="21">
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K28" s="21">
+      <c r="L28" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M28" s="21"/>
@@ -49954,7 +49966,7 @@
       <c r="AT28" s="21"/>
       <c r="BE28" s="21">
         <f>TEA!B$47-TEA!B$43-M28-AI28</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF28" s="21">
         <f>TEA!C$47-TEA!C$43-N28-AJ28</f>
@@ -49994,90 +50006,90 @@
         <v>0</v>
       </c>
       <c r="BP28" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ28" s="21">
+      <c r="BR28" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR28" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS28" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS28" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT28" s="21"/>
       <c r="BU28" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV28" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV28" s="21">
+      <c r="BW28" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW28" s="21">
+      <c r="BX28" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX28" s="21">
+      <c r="BY28" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY28" s="21">
+      <c r="BZ28" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ28" s="21">
+      <c r="CA28" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA28" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB28" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB28" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC28" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC28" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD28" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD28" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE28" s="21"/>
       <c r="CF28" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG28" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG28" s="21">
+      <c r="CH28" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH28" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI28" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI28" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ28" s="21">
+      <c r="CK28" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK28" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL28" s="21">
         <f>IF(CA28&gt;0,CA28*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM28" s="21">
         <f>IF(CB28&gt;0,CB28*TEA!C$17-TEA!C$24,0)</f>
@@ -50118,7 +50130,7 @@
       </c>
       <c r="CW28" s="21">
         <f>TEA!B$47-TEA!B$43-X28-CL28</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX28" s="21">
         <f>TEA!C$47-TEA!C$43-Y28-CM28</f>
@@ -50159,7 +50171,7 @@
       </c>
       <c r="DH28" s="21">
         <f>CW28/(1+TEA!B$16)^$A28</f>
-        <v>21722.904329906771</v>
+        <v>21722.904329906782</v>
       </c>
       <c r="DI28" s="21">
         <f>CX28/(1+TEA!C$16)^$A28</f>
@@ -50205,44 +50217,44 @@
         <v>26</v>
       </c>
       <c r="B29" s="21">
+        <f t="shared" si="31"/>
+        <v>-43630.818509944562</v>
+      </c>
+      <c r="C29" s="21">
         <f t="shared" si="2"/>
-        <v>-43630.818509945457</v>
-      </c>
-      <c r="C29" s="21">
+        <v>-79729.295055783616</v>
+      </c>
+      <c r="D29" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-79729.295055783616</v>
-      </c>
-      <c r="D29" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H29" s="21">
+      <c r="I29" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="21">
+        <v>1895077.4843574218</v>
+      </c>
+      <c r="J29" s="21">
         <f t="shared" si="8"/>
-        <v>1895077.4843574218</v>
-      </c>
-      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K29" s="21">
+      <c r="L29" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M29" s="21"/>
@@ -50251,7 +50263,7 @@
       <c r="AT29" s="21"/>
       <c r="BE29" s="21">
         <f>TEA!B$47-TEA!B$43-M29-AI29</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF29" s="21">
         <f>TEA!C$47-TEA!C$43-N29-AJ29</f>
@@ -50291,90 +50303,90 @@
         <v>0</v>
       </c>
       <c r="BP29" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ29" s="21">
+      <c r="BR29" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR29" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS29" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS29" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT29" s="21"/>
       <c r="BU29" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV29" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV29" s="21">
+      <c r="BW29" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW29" s="21">
+      <c r="BX29" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX29" s="21">
+      <c r="BY29" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY29" s="21">
+      <c r="BZ29" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ29" s="21">
+      <c r="CA29" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA29" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB29" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB29" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC29" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC29" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD29" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD29" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE29" s="21"/>
       <c r="CF29" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG29" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG29" s="21">
+      <c r="CH29" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH29" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI29" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI29" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ29" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ29" s="21">
+      <c r="CK29" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK29" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL29" s="21">
         <f>IF(CA29&gt;0,CA29*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM29" s="21">
         <f>IF(CB29&gt;0,CB29*TEA!C$17-TEA!C$24,0)</f>
@@ -50415,7 +50427,7 @@
       </c>
       <c r="CW29" s="21">
         <f>TEA!B$47-TEA!B$43-X29-CL29</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX29" s="21">
         <f>TEA!C$47-TEA!C$43-Y29-CM29</f>
@@ -50456,7 +50468,7 @@
       </c>
       <c r="DH29" s="21">
         <f>CW29/(1+TEA!B$16)^$A29</f>
-        <v>19748.094845369789</v>
+        <v>19748.0948453698</v>
       </c>
       <c r="DI29" s="21">
         <f>CX29/(1+TEA!C$16)^$A29</f>
@@ -50502,44 +50514,44 @@
         <v>27</v>
       </c>
       <c r="B30" s="21">
+        <f t="shared" si="31"/>
+        <v>-25678.005014153838</v>
+      </c>
+      <c r="C30" s="21">
         <f t="shared" si="2"/>
-        <v>-25678.005014154744</v>
-      </c>
-      <c r="C30" s="21">
+        <v>-62235.403356678638</v>
+      </c>
+      <c r="D30" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-62235.403356678638</v>
-      </c>
-      <c r="D30" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H30" s="21">
+      <c r="I30" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="21">
+        <v>2237935.3429703084</v>
+      </c>
+      <c r="J30" s="21">
         <f t="shared" si="8"/>
-        <v>2237935.3429703084</v>
-      </c>
-      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K30" s="21">
+      <c r="L30" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M30" s="21"/>
@@ -50548,7 +50560,7 @@
       <c r="AT30" s="21"/>
       <c r="BE30" s="21">
         <f>TEA!B$47-TEA!B$43-M30-AI30</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF30" s="21">
         <f>TEA!C$47-TEA!C$43-N30-AJ30</f>
@@ -50588,90 +50600,90 @@
         <v>0</v>
       </c>
       <c r="BP30" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ30" s="21">
+      <c r="BR30" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR30" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS30" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS30" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT30" s="21"/>
       <c r="BU30" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV30" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV30" s="21">
+      <c r="BW30" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW30" s="21">
+      <c r="BX30" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX30" s="21">
+      <c r="BY30" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY30" s="21">
+      <c r="BZ30" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ30" s="21">
+      <c r="CA30" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA30" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB30" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB30" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC30" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC30" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD30" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD30" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE30" s="21"/>
       <c r="CF30" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG30" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG30" s="21">
+      <c r="CH30" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH30" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI30" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI30" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ30" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ30" s="21">
+      <c r="CK30" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK30" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL30" s="21">
         <f>IF(CA30&gt;0,CA30*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM30" s="21">
         <f>IF(CB30&gt;0,CB30*TEA!C$17-TEA!C$24,0)</f>
@@ -50712,7 +50724,7 @@
       </c>
       <c r="CW30" s="21">
         <f>TEA!B$47-TEA!B$43-X30-CL30</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX30" s="21">
         <f>TEA!C$47-TEA!C$43-Y30-CM30</f>
@@ -50753,7 +50765,7 @@
       </c>
       <c r="DH30" s="21">
         <f>CW30/(1+TEA!B$16)^$A30</f>
-        <v>17952.813495790713</v>
+        <v>17952.813495790724</v>
       </c>
       <c r="DI30" s="21">
         <f>CX30/(1+TEA!C$16)^$A30</f>
@@ -50799,44 +50811,44 @@
         <v>28</v>
       </c>
       <c r="B31" s="21">
+        <f t="shared" si="31"/>
+        <v>-9357.2654725259072</v>
+      </c>
+      <c r="C31" s="21">
         <f t="shared" si="2"/>
-        <v>-9357.2654725268203</v>
-      </c>
-      <c r="C31" s="21">
+        <v>-46331.86544840139</v>
+      </c>
+      <c r="D31" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-46331.86544840139</v>
-      </c>
-      <c r="D31" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H31" s="21">
+      <c r="I31" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="21">
+        <v>2549624.3053456596</v>
+      </c>
+      <c r="J31" s="21">
         <f t="shared" si="8"/>
-        <v>2549624.3053456596</v>
-      </c>
-      <c r="J31" s="21">
+        <v>0</v>
+      </c>
+      <c r="K31" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K31" s="21">
+      <c r="L31" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M31" s="21"/>
@@ -50845,7 +50857,7 @@
       <c r="AT31" s="21"/>
       <c r="BE31" s="21">
         <f>TEA!B$47-TEA!B$43-M31-AI31</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF31" s="21">
         <f>TEA!C$47-TEA!C$43-N31-AJ31</f>
@@ -50885,90 +50897,90 @@
         <v>0</v>
       </c>
       <c r="BP31" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ31" s="21">
+      <c r="BR31" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR31" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS31" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS31" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT31" s="21"/>
       <c r="BU31" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV31" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV31" s="21">
+      <c r="BW31" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW31" s="21">
+      <c r="BX31" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX31" s="21">
+      <c r="BY31" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY31" s="21">
+      <c r="BZ31" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ31" s="21">
+      <c r="CA31" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA31" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB31" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB31" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC31" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC31" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD31" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD31" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE31" s="21"/>
       <c r="CF31" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG31" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG31" s="21">
+      <c r="CH31" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH31" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI31" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI31" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ31" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ31" s="21">
+      <c r="CK31" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK31" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL31" s="21">
         <f>IF(CA31&gt;0,CA31*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM31" s="21">
         <f>IF(CB31&gt;0,CB31*TEA!C$17-TEA!C$24,0)</f>
@@ -51009,7 +51021,7 @@
       </c>
       <c r="CW31" s="21">
         <f>TEA!B$47-TEA!B$43-X31-CL31</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX31" s="21">
         <f>TEA!C$47-TEA!C$43-Y31-CM31</f>
@@ -51050,7 +51062,7 @@
       </c>
       <c r="DH31" s="21">
         <f>CW31/(1+TEA!B$16)^$A31</f>
-        <v>16320.739541627923</v>
+        <v>16320.739541627931</v>
       </c>
       <c r="DI31" s="21">
         <f>CX31/(1+TEA!C$16)^$A31</f>
@@ -51096,44 +51108,44 @@
         <v>29</v>
       </c>
       <c r="B32" s="21">
+        <f t="shared" si="31"/>
+        <v>5479.770474408575</v>
+      </c>
+      <c r="C32" s="21">
         <f t="shared" si="2"/>
-        <v>5479.7704744076545</v>
-      </c>
-      <c r="C32" s="21">
+        <v>-31874.103713603894</v>
+      </c>
+      <c r="D32" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>-31874.103713603894</v>
-      </c>
-      <c r="D32" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" s="21" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H32" s="21">
+      <c r="I32" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="21">
+        <v>2832977.9075050699</v>
+      </c>
+      <c r="J32" s="21">
         <f t="shared" si="8"/>
-        <v>2832977.9075050699</v>
-      </c>
-      <c r="J32" s="21">
+        <v>0</v>
+      </c>
+      <c r="K32" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K32" s="21">
+      <c r="L32" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M32" s="21"/>
@@ -51142,7 +51154,7 @@
       <c r="AT32" s="21"/>
       <c r="BE32" s="21">
         <f>TEA!B$47-TEA!B$43-M32-AI32</f>
-        <v>294201.60081362288</v>
+        <v>294201.60081362299</v>
       </c>
       <c r="BF32" s="21">
         <f>TEA!C$47-TEA!C$43-N32-AJ32</f>
@@ -51182,90 +51194,90 @@
         <v>0</v>
       </c>
       <c r="BP32" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ32" s="21">
+      <c r="BR32" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR32" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS32" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS32" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT32" s="21"/>
       <c r="BU32" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV32" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV32" s="21">
+      <c r="BW32" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW32" s="21">
+      <c r="BX32" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX32" s="21">
+      <c r="BY32" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY32" s="21">
+      <c r="BZ32" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ32" s="21">
+      <c r="CA32" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA32" s="21">
+        <v>294201.60081362299</v>
+      </c>
+      <c r="CB32" s="21">
         <f t="shared" si="22"/>
-        <v>294201.60081362288</v>
-      </c>
-      <c r="CB32" s="21">
+        <v>286681.02320249437</v>
+      </c>
+      <c r="CC32" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>286681.02320249437</v>
-      </c>
-      <c r="CC32" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD32" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD32" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE32" s="21"/>
       <c r="CF32" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG32" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG32" s="21">
+      <c r="CH32" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH32" s="21">
+        <v>4909356.9186563194</v>
+      </c>
+      <c r="CI32" s="21">
         <f t="shared" si="28"/>
-        <v>4909356.9186563194</v>
-      </c>
-      <c r="CI32" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ32" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ32" s="21">
+      <c r="CK32" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK32" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL32" s="21">
         <f>IF(CA32&gt;0,CA32*TEA!B$17-TEA!B$24,0)</f>
-        <v>58840.32016272458</v>
+        <v>58840.320162724602</v>
       </c>
       <c r="CM32" s="21">
         <f>IF(CB32&gt;0,CB32*TEA!C$17-TEA!C$24,0)</f>
@@ -51306,7 +51318,7 @@
       </c>
       <c r="CW32" s="21">
         <f>TEA!B$47-TEA!B$43-X32-CL32</f>
-        <v>235361.28065089829</v>
+        <v>235361.28065089841</v>
       </c>
       <c r="CX32" s="21">
         <f>TEA!C$47-TEA!C$43-Y32-CM32</f>
@@ -51347,7 +51359,7 @@
       </c>
       <c r="DH32" s="21">
         <f>CW32/(1+TEA!B$16)^$A32</f>
-        <v>14837.035946934475</v>
+        <v>14837.035946934482</v>
       </c>
       <c r="DI32" s="21">
         <f>CX32/(1+TEA!C$16)^$A32</f>
@@ -51394,43 +51406,43 @@
       </c>
       <c r="B33" s="34">
         <f>B32+DH33</f>
-        <v>2.3919710656628013E-10</v>
+        <v>1.1623342288658023E-9</v>
       </c>
       <c r="C33" s="34">
+        <f t="shared" si="2"/>
+        <v>-37698.668926317652</v>
+      </c>
+      <c r="D33" s="34" t="e">
         <f t="shared" si="3"/>
-        <v>-37698.668926317652</v>
-      </c>
-      <c r="D33" s="34" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="34" t="e">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" s="34" t="e">
-        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H33" s="34">
+      <c r="I33" s="34">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="34">
+        <v>3084748.6367958114</v>
+      </c>
+      <c r="J33" s="34">
         <f t="shared" si="8"/>
-        <v>3084748.6367958114</v>
-      </c>
-      <c r="J33" s="34">
+        <v>0</v>
+      </c>
+      <c r="K33" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K33" s="34">
+      <c r="L33" s="34">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="34">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M33" s="21"/>
@@ -51439,7 +51451,7 @@
       <c r="AT33" s="21"/>
       <c r="BE33" s="21">
         <f>(TEA!B$47-TEA!B$43-M33-AI33)+TEA!B25</f>
-        <v>1949101.6008136228</v>
+        <v>1949101.6008136231</v>
       </c>
       <c r="BF33" s="21">
         <f>(TEA!C$47-TEA!C$43-N33-AJ33)+TEA!C25</f>
@@ -51479,90 +51491,90 @@
         <v>0</v>
       </c>
       <c r="BP33" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ33" s="21">
+      <c r="BR33" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR33" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS33" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BS33" s="21" t="e">
-        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BT33" s="21"/>
       <c r="BU33" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BV33" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BV33" s="21">
+      <c r="BW33" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BW33" s="21">
+      <c r="BX33" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BX33" s="21">
+      <c r="BY33" s="21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BY33" s="21">
+      <c r="BZ33" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BZ33" s="21">
+      <c r="CA33" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="CA33" s="21">
+        <v>1949101.6008136231</v>
+      </c>
+      <c r="CB33" s="21">
         <f t="shared" si="22"/>
-        <v>1949101.6008136228</v>
-      </c>
-      <c r="CB33" s="21">
+        <v>1941581.0232024943</v>
+      </c>
+      <c r="CC33" s="21" t="e">
         <f t="shared" si="23"/>
-        <v>1941581.0232024943</v>
-      </c>
-      <c r="CC33" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD33" s="21" t="e">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CD33" s="21" t="e">
-        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="CE33" s="21"/>
       <c r="CF33" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CG33" s="21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="CG33" s="21">
+      <c r="CH33" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CH33" s="21">
+        <v>5417435.9186563194</v>
+      </c>
+      <c r="CI33" s="21">
         <f t="shared" si="28"/>
-        <v>5417435.9186563194</v>
-      </c>
-      <c r="CI33" s="21">
+        <v>0</v>
+      </c>
+      <c r="CJ33" s="21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="CJ33" s="21">
+      <c r="CK33" s="21">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CK33" s="21">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="CL33" s="21">
         <f>IF(CA33&gt;0,CA33*TEA!B$17-TEA!B$24,0)</f>
-        <v>389820.32016272459</v>
+        <v>389820.32016272465</v>
       </c>
       <c r="CM33" s="21">
         <f>IF(CB33&gt;0,CB33*TEA!C$17-TEA!C$24,0)</f>
@@ -51603,7 +51615,7 @@
       </c>
       <c r="CW33" s="21">
         <f>TEA!B$47-TEA!B$43-X33-CL33</f>
-        <v>-95618.71934910171</v>
+        <v>-95618.719349101651</v>
       </c>
       <c r="CX33" s="21">
         <f>TEA!C$47-TEA!C$43-Y33-CM33</f>
@@ -51644,7 +51656,7 @@
       </c>
       <c r="DH33" s="21">
         <f>CW33/(1+TEA!B$16)^$A33</f>
-        <v>-5479.7704744074153</v>
+        <v>-5479.7704744074126</v>
       </c>
       <c r="DI33" s="21">
         <f>CX33/(1+TEA!C$16)^$A33</f>
@@ -63245,8 +63257,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -63895,10 +63907,10 @@
   <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -64799,7 +64811,6 @@
       <c r="D23" s="266" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="266"/>
       <c r="F23" s="266">
         <v>25.8</v>
       </c>
@@ -66250,7 +66261,6 @@
       <c r="D52" s="266" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="266"/>
       <c r="F52" s="266">
         <v>0</v>
       </c>
@@ -66314,6 +66324,39 @@
         <f>G97</f>
         <v>0.64400000000000002</v>
       </c>
+      <c r="H53">
+        <v>456.37</v>
+      </c>
+      <c r="J53">
+        <v>3.6600000000000001E-3</v>
+      </c>
+      <c r="K53">
+        <v>0.71021999999999996</v>
+      </c>
+      <c r="L53">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="M53" s="95">
+        <v>1.26609E-8</v>
+      </c>
+      <c r="N53" s="95">
+        <v>2.81741E-8</v>
+      </c>
+      <c r="O53" s="95">
+        <v>8.1562999999999995E-7</v>
+      </c>
+      <c r="P53" s="95">
+        <v>3.8719999999999997E-2</v>
+      </c>
+      <c r="Q53" s="95">
+        <v>6.7438599999999997</v>
+      </c>
+      <c r="R53" s="95">
+        <v>3.5E-4</v>
+      </c>
+      <c r="S53" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
@@ -66413,11 +66456,47 @@
       <c r="C56" t="s">
         <v>147</v>
       </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
       <c r="E56">
         <v>50</v>
       </c>
       <c r="G56">
         <v>0.25</v>
+      </c>
+      <c r="H56">
+        <v>455.44</v>
+      </c>
+      <c r="J56">
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="K56">
+        <v>1.51075</v>
+      </c>
+      <c r="L56">
+        <v>3.3E-4</v>
+      </c>
+      <c r="M56" s="95">
+        <v>7.6613600000000005E-9</v>
+      </c>
+      <c r="N56" s="95">
+        <v>3.2047100000000002E-9</v>
+      </c>
+      <c r="O56" s="95">
+        <v>1.5950399999999999E-8</v>
+      </c>
+      <c r="P56" s="95">
+        <v>1.048E-2</v>
+      </c>
+      <c r="Q56" s="95">
+        <v>9.8275699999999997</v>
+      </c>
+      <c r="R56" s="95">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="S56" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -66828,6 +66907,7 @@
       <c r="D75" t="s">
         <v>161</v>
       </c>
+      <c r="E75" s="94"/>
       <c r="F75">
         <v>0</v>
       </c>
@@ -66854,6 +66934,7 @@
       <c r="D76" t="s">
         <v>161</v>
       </c>
+      <c r="E76" s="94"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="67" t="s">
@@ -66868,6 +66949,7 @@
       <c r="D77" t="s">
         <v>161</v>
       </c>
+      <c r="E77" s="94"/>
       <c r="F77">
         <v>0</v>
       </c>
@@ -66979,6 +67061,7 @@
       <c r="D82" t="s">
         <v>161</v>
       </c>
+      <c r="E82" s="94"/>
       <c r="F82">
         <v>0</v>
       </c>
@@ -67005,6 +67088,7 @@
       <c r="D83" t="s">
         <v>161</v>
       </c>
+      <c r="E83" s="94"/>
       <c r="F83" s="94">
         <v>0</v>
       </c>
@@ -67055,6 +67139,7 @@
       <c r="D84" t="s">
         <v>161</v>
       </c>
+      <c r="E84" s="94"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="67" t="s">
@@ -67066,6 +67151,7 @@
       <c r="C85" t="s">
         <v>285</v>
       </c>
+      <c r="E85" s="94"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="67" t="s">
@@ -67077,6 +67163,7 @@
       <c r="C86" t="s">
         <v>285</v>
       </c>
+      <c r="E86" s="94"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="68" t="s">
@@ -67526,10 +67613,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8217C1A4-17E9-492A-B5CC-E19EC441C020}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A37" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -67539,908 +67626,916 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="273" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="277" t="s">
+      <c r="B1" s="273" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="273" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="277" t="s">
+      <c r="B2" s="273" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="273" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="277" t="s">
+      <c r="B3" s="273" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="273" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="273" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="277" t="s">
+      <c r="A5" s="273" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="277" t="s">
+      <c r="B5" s="273" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="277" t="s">
+      <c r="B6" s="273" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="277" t="s">
+      <c r="A7" s="273" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="277" t="s">
+      <c r="B7" s="273" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="277" t="s">
+      <c r="A8" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="277" t="s">
+      <c r="B8" s="273" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="277" t="s">
+      <c r="A9" s="273" t="s">
         <v>757</v>
       </c>
-      <c r="B9" s="277" t="s">
+      <c r="B9" s="273" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="277" t="s">
+      <c r="B10" s="273" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="277" t="s">
+      <c r="A11" s="273" t="s">
         <v>592</v>
       </c>
-      <c r="B11" s="277" t="s">
+      <c r="B11" s="273" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="277" t="s">
+      <c r="A12" s="273" t="s">
         <v>591</v>
       </c>
-      <c r="B12" s="277" t="s">
+      <c r="B12" s="273" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="277" t="s">
+      <c r="A13" s="273" t="s">
         <v>335</v>
       </c>
-      <c r="B13" s="277" t="s">
+      <c r="B13" s="273" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="277" t="s">
+      <c r="A14" s="273" t="s">
         <v>760</v>
       </c>
-      <c r="B14" s="277" t="s">
+      <c r="B14" s="273" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="273" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="277" t="s">
+      <c r="B15" s="273" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="277" t="s">
+      <c r="A16" s="273" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="277" t="s">
+      <c r="B16" s="273" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="277" t="s">
+      <c r="A17" s="273" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="277" t="s">
+      <c r="B17" s="273" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="277" t="s">
+      <c r="A18" s="273" t="s">
         <v>287</v>
       </c>
-      <c r="B18" s="277" t="s">
+      <c r="B18" s="273" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="277" t="s">
+      <c r="A19" s="273" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="277" t="s">
+      <c r="B19" s="273" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="277" t="s">
+      <c r="A20" s="273" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="277" t="s">
+      <c r="B20" s="273" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="277" t="s">
+      <c r="A21" s="273" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="277" t="s">
+      <c r="B21" s="273" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="277" t="s">
+      <c r="A22" s="273" t="s">
         <v>762</v>
       </c>
-      <c r="B22" s="277" t="s">
+      <c r="B22" s="273" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="277" t="s">
+      <c r="A23" s="273" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="277" t="s">
+      <c r="B23" s="273" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="277" t="s">
+      <c r="A24" s="273" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="277" t="s">
+      <c r="B24" s="273" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="273" t="s">
         <v>764</v>
       </c>
-      <c r="B25" s="277" t="s">
+      <c r="B25" s="273" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="277" t="s">
+      <c r="A26" s="273" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="277" t="s">
+      <c r="B26" s="273" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="277" t="s">
+      <c r="A27" s="273" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="277" t="s">
+      <c r="B27" s="273" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="273" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="277" t="s">
+      <c r="B28" s="273" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="277" t="s">
+      <c r="A29" s="273" t="s">
         <v>305</v>
       </c>
-      <c r="B29" s="277" t="s">
+      <c r="B29" s="273" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="277" t="s">
+      <c r="A30" s="273" t="s">
         <v>307</v>
       </c>
-      <c r="B30" s="277" t="s">
+      <c r="B30" s="273" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="277" t="s">
+      <c r="A31" s="273" t="s">
         <v>309</v>
       </c>
-      <c r="B31" s="277" t="s">
+      <c r="B31" s="273" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="277" t="s">
+      <c r="A32" s="273" t="s">
         <v>549</v>
       </c>
-      <c r="B32" s="277" t="s">
+      <c r="B32" s="273" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="277" t="s">
+      <c r="A33" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="B33" s="277" t="s">
+      <c r="B33" s="273" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="277" t="s">
+      <c r="A34" s="273" t="s">
         <v>337</v>
       </c>
-      <c r="B34" s="277" t="s">
+      <c r="B34" s="273" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="277" t="s">
+      <c r="A35" s="273" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="277" t="s">
+      <c r="B35" s="273" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="277" t="s">
+      <c r="A36" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="277" t="s">
+      <c r="B36" s="273" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="278" t="s">
+      <c r="A37" s="274" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="277" t="s">
+      <c r="B37" s="273" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="277" t="s">
+      <c r="A38" s="273" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="277" t="s">
+      <c r="B38" s="273" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="277" t="s">
+      <c r="A39" s="273" t="s">
         <v>341</v>
       </c>
-      <c r="B39" s="277" t="s">
+      <c r="B39" s="273" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="277" t="s">
+      <c r="A40" s="273" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="273" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="277" t="s">
+      <c r="A41" s="273" t="s">
         <v>439</v>
       </c>
-      <c r="B41" s="277" t="s">
+      <c r="B41" s="273" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="277" t="s">
+      <c r="A42" s="273" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="277" t="s">
+      <c r="B42" s="273" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="277" t="s">
+      <c r="A43" s="273" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="277" t="s">
+      <c r="B43" s="273" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="277" t="s">
+      <c r="A44" s="273" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="277" t="s">
+      <c r="B44" s="273" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="277" t="s">
+      <c r="A45" s="273" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="277" t="s">
+      <c r="B45" s="273" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="277" t="s">
+      <c r="A46" s="273" t="s">
         <v>343</v>
       </c>
-      <c r="B46" s="277" t="s">
+      <c r="B46" s="273" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="277" t="s">
+      <c r="A47" s="273" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="277" t="s">
+      <c r="B47" s="273" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="277" t="s">
+      <c r="A48" s="273" t="s">
         <v>193</v>
       </c>
-      <c r="B48" s="277" t="s">
+      <c r="B48" s="273" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="277" t="s">
+      <c r="A49" s="273" t="s">
         <v>311</v>
       </c>
-      <c r="B49" s="277" t="s">
+      <c r="B49" s="273" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="277" t="s">
+      <c r="A50" s="273" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="277" t="s">
+      <c r="B50" s="273" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="277" t="s">
+      <c r="A51" s="273" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="277" t="s">
+      <c r="B51" s="273" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="277" t="s">
+      <c r="A52" s="273" t="s">
+        <v>775</v>
+      </c>
+      <c r="B52" s="273" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="273" t="s">
         <v>275</v>
       </c>
-      <c r="B52" s="277" t="s">
+      <c r="B53" s="273" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="277" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="273" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="277" t="s">
+      <c r="B54" s="273" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="277" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="273" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="277" t="s">
+      <c r="B55" s="273" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="277" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="273" t="s">
         <v>277</v>
       </c>
-      <c r="B55" s="277" t="s">
+      <c r="B56" s="273" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="277" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="273" t="s">
         <v>345</v>
       </c>
-      <c r="B56" s="277" t="s">
+      <c r="B57" s="273" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="277" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="273" t="s">
         <v>207</v>
       </c>
-      <c r="B57" s="277" t="s">
+      <c r="B58" s="273" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="277" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="273" t="s">
         <v>347</v>
       </c>
-      <c r="B58" s="277" t="s">
+      <c r="B59" s="273" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="277" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="273" t="s">
         <v>349</v>
       </c>
-      <c r="B59" s="277" t="s">
+      <c r="B60" s="273" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="277" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="273" t="s">
         <v>351</v>
       </c>
-      <c r="B60" s="277" t="s">
+      <c r="B61" s="273" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="277" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="273" t="s">
         <v>353</v>
       </c>
-      <c r="B61" s="277" t="s">
+      <c r="B62" s="273" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="277" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="273" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="277" t="s">
+      <c r="B63" s="273" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="277" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="273" t="s">
         <v>392</v>
       </c>
-      <c r="B63" s="277" t="s">
+      <c r="B64" s="273" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="277" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="273" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="277" t="s">
+      <c r="B65" s="273" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="277" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="273" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="277" t="s">
+      <c r="B66" s="273" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="277" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="273" t="s">
         <v>270</v>
       </c>
-      <c r="B66" s="277" t="s">
+      <c r="B67" s="273" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="277" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="273" t="s">
         <v>273</v>
       </c>
-      <c r="B67" s="277" t="s">
+      <c r="B68" s="273" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="277" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="273" t="s">
         <v>355</v>
       </c>
-      <c r="B68" s="277" t="s">
+      <c r="B69" s="273" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="277" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="273" t="s">
         <v>291</v>
       </c>
-      <c r="B69" s="277" t="s">
+      <c r="B70" s="273" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="277" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="273" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="277" t="s">
+      <c r="B71" s="273" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="277" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="273" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="277" t="s">
+      <c r="B72" s="273" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="277" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="273" t="s">
         <v>471</v>
       </c>
-      <c r="B72" s="277" t="s">
+      <c r="B73" s="273" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="277" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="273" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="277" t="s">
+      <c r="B74" s="273" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="277" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="273" t="s">
         <v>313</v>
       </c>
-      <c r="B74" s="277" t="s">
+      <c r="B75" s="273" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="277" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="273" t="s">
         <v>293</v>
       </c>
-      <c r="B75" s="277" t="s">
+      <c r="B76" s="273" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="277" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="273" t="s">
         <v>357</v>
       </c>
-      <c r="B76" s="277" t="s">
+      <c r="B77" s="273" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="277" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="273" t="s">
         <v>280</v>
       </c>
-      <c r="B77" s="277" t="s">
+      <c r="B78" s="273" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="277" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="273" t="s">
         <v>315</v>
       </c>
-      <c r="B78" s="277" t="s">
+      <c r="B79" s="273" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="277" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="273" t="s">
         <v>218</v>
       </c>
-      <c r="B79" s="277" t="s">
+      <c r="B80" s="273" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="277" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="273" t="s">
         <v>295</v>
       </c>
-      <c r="B80" s="277" t="s">
+      <c r="B81" s="273" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="277" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="273" t="s">
         <v>221</v>
       </c>
-      <c r="B81" s="277" t="s">
+      <c r="B82" s="273" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="277" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="273" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="277" t="s">
+      <c r="B83" s="273" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="277" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="273" t="s">
         <v>227</v>
       </c>
-      <c r="B83" s="277" t="s">
+      <c r="B84" s="273" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="277" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="273" t="s">
         <v>230</v>
       </c>
-      <c r="B84" s="277" t="s">
+      <c r="B85" s="273" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="277" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="273" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="277" t="s">
+      <c r="B86" s="273" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="277" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="273" t="s">
         <v>359</v>
       </c>
-      <c r="B86" s="277" t="s">
+      <c r="B87" s="273" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="277" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="273" t="s">
         <v>423</v>
       </c>
-      <c r="B87" s="277" t="s">
+      <c r="B88" s="273" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="277" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="273" t="s">
         <v>317</v>
       </c>
-      <c r="B88" s="277" t="s">
+      <c r="B89" s="273" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="277" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="273" t="s">
         <v>465</v>
       </c>
-      <c r="B89" s="277" t="s">
+      <c r="B90" s="273" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="277" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="273" t="s">
         <v>319</v>
       </c>
-      <c r="B90" s="277" t="s">
+      <c r="B91" s="273" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="277" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="273" t="s">
         <v>233</v>
       </c>
-      <c r="B91" s="277" t="s">
+      <c r="B92" s="273" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="277" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="273" t="s">
         <v>321</v>
       </c>
-      <c r="B92" s="277" t="s">
+      <c r="B93" s="273" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="277" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="273" t="s">
         <v>323</v>
       </c>
-      <c r="B93" s="277" t="s">
+      <c r="B94" s="273" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="277" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="273" t="s">
         <v>235</v>
       </c>
-      <c r="B94" s="277" t="s">
+      <c r="B95" s="273" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="277" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="273" t="s">
         <v>325</v>
       </c>
-      <c r="B95" s="277" t="s">
+      <c r="B96" s="273" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="277" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="273" t="s">
         <v>238</v>
       </c>
-      <c r="B96" s="277" t="s">
+      <c r="B97" s="273" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="277" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="273" t="s">
         <v>550</v>
       </c>
-      <c r="B97" s="277" t="s">
+      <c r="B98" s="273" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="277" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="273" t="s">
         <v>241</v>
       </c>
-      <c r="B98" s="277" t="s">
+      <c r="B99" s="273" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="277" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="273" t="s">
         <v>748</v>
       </c>
-      <c r="B99" s="277" t="s">
+      <c r="B100" s="273" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="277" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="273" t="s">
         <v>244</v>
       </c>
-      <c r="B100" s="277" t="s">
+      <c r="B101" s="273" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="277" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="273" t="s">
         <v>773</v>
       </c>
-      <c r="B101" s="277" t="s">
+      <c r="B102" s="273" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="277" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="273" t="s">
         <v>328</v>
       </c>
-      <c r="B102" s="277" t="s">
+      <c r="B103" s="273" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="277" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="273" t="s">
         <v>246</v>
       </c>
-      <c r="B103" s="277" t="s">
+      <c r="B104" s="273" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="277" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="273" t="s">
         <v>246</v>
       </c>
-      <c r="B104" s="277" t="s">
+      <c r="B105" s="273" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="277" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="273" t="s">
         <v>248</v>
       </c>
-      <c r="B105" s="277" t="s">
+      <c r="B106" s="273" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="277" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="273" t="s">
         <v>251</v>
       </c>
-      <c r="B106" s="277" t="s">
+      <c r="B107" s="273" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="278" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="274" t="s">
         <v>331</v>
       </c>
-      <c r="B107" s="277" t="s">
+      <c r="B108" s="273" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="278" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="274" t="s">
         <v>333</v>
       </c>
-      <c r="B108" s="277" t="s">
+      <c r="B109" s="273" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="277" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="273" t="s">
         <v>255</v>
       </c>
-      <c r="B109" s="277" t="s">
+      <c r="B110" s="273" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="277" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="273" t="s">
         <v>253</v>
       </c>
-      <c r="B110" s="277" t="s">
+      <c r="B111" s="273" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="278" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="274" t="s">
         <v>253</v>
       </c>
-      <c r="B111" s="277" t="s">
+      <c r="B112" s="273" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="277" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="B112" s="277" t="s">
+      <c r="B113" s="273" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="277"/>
-      <c r="B113" s="277"/>
-    </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="277"/>
-      <c r="B114" s="277"/>
+      <c r="A114" s="273"/>
+      <c r="B114" s="273"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="273"/>
+      <c r="B115" s="273"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
